--- a/Outputs/1. Budget/Output Files/100000/Output_0_33.xlsx
+++ b/Outputs/1. Budget/Output Files/100000/Output_0_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2275912.865534774</v>
+        <v>2268313.026681546</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742179</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -665,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>47.13383555196383</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>53.51252900994987</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>53.51252900994987</v>
       </c>
       <c r="H2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -701,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>14.96435308057243</v>
+        <v>53.51252900994987</v>
       </c>
       <c r="T2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -741,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>46.38724422570597</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -753,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994987</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>53.51252900994987</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>53.51252900994987</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>46.38724422570588</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -832,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>3.892417739585417</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>53.51252900994987</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>53.51252900994987</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -871,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>23.44046883036203</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -905,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>47.11353018715725</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>64.1386326986768</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.6003327477366</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>29.81893858089545</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1023,10 +1025,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1136,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="G8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G8" t="n">
-        <v>235.9477392089838</v>
       </c>
       <c r="H8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1212,25 +1214,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>65.84699805791786</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>95.51299236425928</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1263,7 +1265,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1275,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1412,22 +1414,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>114.9581870864144</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1446,31 +1448,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>167.6273183037254</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>152.7144052225942</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1512,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1616,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -1649,22 +1651,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1686,22 +1688,22 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -1731,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>147.2379120664689</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1847,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1886,19 +1888,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1920,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1932,19 +1934,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>58.1958364687712</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1980,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2056,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2081,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2123,22 +2125,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2157,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,16 +2171,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>21.43371988938897</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>170.7632668135831</v>
       </c>
     </row>
     <row r="22">
@@ -2242,55 +2244,55 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2324,10 +2326,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2360,19 +2362,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>114.9581870864144</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2381,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,31 +2396,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>54.98390551523835</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>210.6909294702016</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2463,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2494,52 +2496,52 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2564,64 +2566,64 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I26" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J26" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2634,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>87.20907807295006</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2646,13 +2648,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>61.53431592824828</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2682,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2700,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2713,73 +2715,73 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,76 +2791,76 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="I29" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2877,10 +2879,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>12.38883398415875</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2931,7 +2933,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>157.4580463775426</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2959,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3007,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,11 +3028,11 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
@@ -3038,14 +3040,14 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
@@ -3089,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,31 +3107,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>49.98213474053743</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.68021010218008</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3168,10 +3170,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3196,52 +3198,52 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.0142888776591</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="C35" t="n">
         <v>241.0142888776591</v>
@@ -3287,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3323,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>241.0142888776591</v>
@@ -3354,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3366,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,13 +3395,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>112.1123410997431</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3408,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>70.10136126801662</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3463,16 +3465,16 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>44.30348359856706</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3509,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3545,25 +3547,25 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
-        <v>102.3382270926889</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3600,10 +3602,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>34.66067414728059</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -3642,7 +3644,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3679,13 +3681,13 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -3703,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
     </row>
     <row r="41">
@@ -3746,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3782,16 +3784,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>11.19305615617957</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3828,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,25 +3866,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>116.6930783966232</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>22.23421475067887</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3916,13 +3918,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3937,13 +3939,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>44.30348359856706</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3977,7 +3979,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3992,7 +3994,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4059,19 +4061,19 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4116,10 +4118,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>182.1236780068478</v>
+        <v>236.1296690938396</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4141,67 +4143,67 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80.73687329735785</v>
+        <v>159.9970564337895</v>
       </c>
       <c r="C2" t="n">
-        <v>80.73687329735785</v>
+        <v>159.9970564337895</v>
       </c>
       <c r="D2" t="n">
-        <v>80.73687329735785</v>
+        <v>159.9970564337895</v>
       </c>
       <c r="E2" t="n">
-        <v>80.73687329735785</v>
+        <v>112.3871215328159</v>
       </c>
       <c r="F2" t="n">
-        <v>73.79137254815437</v>
+        <v>58.33406192680597</v>
       </c>
       <c r="G2" t="n">
-        <v>58.33406192680583</v>
+        <v>4.28100232079599</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079598</v>
+        <v>4.28100232079599</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>4.28100232079599</v>
       </c>
       <c r="J2" t="n">
-        <v>4.28100232079598</v>
+        <v>4.28100232079599</v>
       </c>
       <c r="K2" t="n">
-        <v>57.25840604064623</v>
+        <v>55.11790488024837</v>
       </c>
       <c r="L2" t="n">
-        <v>108.0953086000985</v>
+        <v>108.0953086000987</v>
       </c>
       <c r="M2" t="n">
-        <v>108.0953086000985</v>
+        <v>108.0953086000987</v>
       </c>
       <c r="N2" t="n">
-        <v>161.0727123199487</v>
+        <v>161.0727123199491</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>214.0501160397995</v>
       </c>
       <c r="P2" t="n">
-        <v>214.050116039799</v>
+        <v>214.0501160397995</v>
       </c>
       <c r="Q2" t="n">
-        <v>203.9585006715719</v>
+        <v>214.0501160397995</v>
       </c>
       <c r="R2" t="n">
-        <v>203.9585006715719</v>
+        <v>214.0501160397995</v>
       </c>
       <c r="S2" t="n">
-        <v>188.8429925093776</v>
+        <v>159.9970564337895</v>
       </c>
       <c r="T2" t="n">
-        <v>134.7899329033677</v>
+        <v>159.9970564337895</v>
       </c>
       <c r="U2" t="n">
-        <v>80.73687329735785</v>
+        <v>159.9970564337895</v>
       </c>
       <c r="V2" t="n">
-        <v>80.73687329735785</v>
+        <v>159.9970564337895</v>
       </c>
       <c r="W2" t="n">
-        <v>80.73687329735785</v>
+        <v>159.9970564337895</v>
       </c>
       <c r="X2" t="n">
-        <v>80.73687329735785</v>
+        <v>159.9970564337895</v>
       </c>
       <c r="Y2" t="n">
-        <v>80.73687329735785</v>
+        <v>159.9970564337895</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.08819457959154</v>
+        <v>105.9439968277795</v>
       </c>
       <c r="C3" t="n">
-        <v>59.08819457959154</v>
+        <v>105.9439968277795</v>
       </c>
       <c r="D3" t="n">
-        <v>59.08819457959154</v>
+        <v>59.08819457959168</v>
       </c>
       <c r="E3" t="n">
-        <v>59.08819457959154</v>
+        <v>59.08819457959168</v>
       </c>
       <c r="F3" t="n">
-        <v>59.08819457959154</v>
+        <v>59.08819457959168</v>
       </c>
       <c r="G3" t="n">
-        <v>59.08819457959154</v>
+        <v>59.08819457959168</v>
       </c>
       <c r="H3" t="n">
-        <v>5.035134973581694</v>
+        <v>5.035134973581703</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581694</v>
+        <v>5.035134973581703</v>
       </c>
       <c r="J3" t="n">
-        <v>4.28100232079598</v>
+        <v>4.28100232079599</v>
       </c>
       <c r="K3" t="n">
-        <v>57.25840604064623</v>
+        <v>4.28100232079599</v>
       </c>
       <c r="L3" t="n">
-        <v>57.25840604064623</v>
+        <v>4.28100232079599</v>
       </c>
       <c r="M3" t="n">
-        <v>57.25840604064623</v>
+        <v>55.11790488024837</v>
       </c>
       <c r="N3" t="n">
-        <v>57.25840604064623</v>
+        <v>108.0953086000987</v>
       </c>
       <c r="O3" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199491</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>161.0727123199491</v>
       </c>
       <c r="Q3" t="n">
-        <v>214.050116039799</v>
+        <v>214.0501160397995</v>
       </c>
       <c r="R3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337895</v>
       </c>
       <c r="S3" t="n">
-        <v>214.050116039799</v>
+        <v>105.9439968277795</v>
       </c>
       <c r="T3" t="n">
-        <v>214.050116039799</v>
+        <v>105.9439968277795</v>
       </c>
       <c r="U3" t="n">
-        <v>167.1943137916113</v>
+        <v>105.9439968277795</v>
       </c>
       <c r="V3" t="n">
-        <v>167.1943137916113</v>
+        <v>105.9439968277795</v>
       </c>
       <c r="W3" t="n">
-        <v>167.1943137916113</v>
+        <v>105.9439968277795</v>
       </c>
       <c r="X3" t="n">
-        <v>113.1412541856014</v>
+        <v>105.9439968277795</v>
       </c>
       <c r="Y3" t="n">
-        <v>59.08819457959154</v>
+        <v>105.9439968277795</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.28100232079598</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="C4" t="n">
-        <v>4.28100232079598</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="D4" t="n">
-        <v>4.28100232079598</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="E4" t="n">
-        <v>4.28100232079598</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="F4" t="n">
-        <v>4.28100232079598</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="G4" t="n">
-        <v>4.28100232079598</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="H4" t="n">
-        <v>4.28100232079598</v>
+        <v>134.8815577205764</v>
       </c>
       <c r="I4" t="n">
-        <v>4.28100232079598</v>
+        <v>80.82849811456643</v>
       </c>
       <c r="J4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855645</v>
       </c>
       <c r="K4" t="n">
-        <v>4.28100232079598</v>
+        <v>4.28100232079599</v>
       </c>
       <c r="L4" t="n">
-        <v>31.59512732850896</v>
+        <v>31.59512732850897</v>
       </c>
       <c r="M4" t="n">
-        <v>70.78316552073113</v>
+        <v>70.78316552073115</v>
       </c>
       <c r="N4" t="n">
-        <v>114.4740161761674</v>
+        <v>114.4740161761675</v>
       </c>
       <c r="O4" t="n">
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="U4" t="n">
-        <v>82.01130316959576</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="V4" t="n">
-        <v>82.01130316959576</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="W4" t="n">
-        <v>27.95824356358591</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="X4" t="n">
-        <v>4.28100232079598</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.28100232079598</v>
+        <v>138.8132928110667</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>569.2254314512334</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C5" t="n">
-        <v>325.7766548071333</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D5" t="n">
-        <v>325.7766548071333</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E5" t="n">
-        <v>325.7766548071333</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F5" t="n">
-        <v>278.1872303756613</v>
+        <v>308.7395386897029</v>
       </c>
       <c r="G5" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>569.2254314512334</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>569.2254314512334</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>569.2254314512334</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>569.2254314512334</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>569.2254314512334</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>486.9119902784999</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C6" t="n">
-        <v>312.4589609973729</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D6" t="n">
-        <v>163.5245513361216</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="E6" t="n">
-        <v>163.5245513361216</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="F6" t="n">
-        <v>163.5245513361216</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>163.5245513361216</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>50.15541574370091</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4671,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y6" t="n">
-        <v>655.1273272985679</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
         <v>19.28114311021272</v>
@@ -4753,22 +4755,22 @@
         <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="D8" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="E8" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="F8" t="n">
-        <v>713.6628781173328</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G8" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4832,22 +4834,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>420.237879300003</v>
+        <v>206.8126749707503</v>
       </c>
       <c r="C9" t="n">
-        <v>245.784850018876</v>
+        <v>206.8126749707503</v>
       </c>
       <c r="D9" t="n">
-        <v>245.784850018876</v>
+        <v>206.8126749707503</v>
       </c>
       <c r="E9" t="n">
-        <v>86.54739501342053</v>
+        <v>206.8126749707503</v>
       </c>
       <c r="F9" t="n">
-        <v>86.54739501342053</v>
+        <v>206.8126749707503</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>206.8126749707503</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4890,16 +4892,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4911,22 +4913,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U9" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V9" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W9" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X9" t="n">
-        <v>588.4532163200711</v>
+        <v>582.7883107557723</v>
       </c>
       <c r="Y9" t="n">
-        <v>588.4532163200711</v>
+        <v>375.0280119908184</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>231.8830517671884</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C11" t="n">
-        <v>231.8830517671884</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D11" t="n">
-        <v>231.8830517671884</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E11" t="n">
-        <v>231.8830517671884</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F11" t="n">
-        <v>231.8830517671884</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G11" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T11" t="n">
-        <v>475.3318284112885</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U11" t="n">
-        <v>475.3318284112885</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V11" t="n">
-        <v>231.8830517671884</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W11" t="n">
-        <v>231.8830517671884</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X11" t="n">
-        <v>231.8830517671884</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y11" t="n">
-        <v>231.8830517671884</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>327.4530077769195</v>
+        <v>587.9903182850353</v>
       </c>
       <c r="C12" t="n">
-        <v>327.4530077769195</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="D12" t="n">
-        <v>178.5185981156682</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5130,40 +5132,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>535.2133065418734</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>535.2133065418734</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>535.2133065418734</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>535.2133065418734</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>535.2133065418734</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y12" t="n">
-        <v>327.4530077769195</v>
+        <v>756.2056553051034</v>
       </c>
     </row>
     <row r="13">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F14" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G14" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I14" t="n">
         <v>31.35113235729608</v>
@@ -5297,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H15" t="n">
         <v>110.334904905842</v>
@@ -5358,19 +5360,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M15" t="n">
-        <v>486.8488635328713</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5379,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="16">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>560.6897102588255</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>386.2366809776985</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>237.3022713164472</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>78.06481631099172</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,16 +5600,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5628,16 +5630,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="19">
@@ -5704,7 +5706,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>233.7108255783361</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U20" t="n">
-        <v>720.6083788665362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V20" t="n">
-        <v>477.1596022224361</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W20" t="n">
-        <v>477.1596022224361</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X20" t="n">
-        <v>233.7108255783361</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="Y20" t="n">
-        <v>233.7108255783361</v>
+        <v>30.58726043968704</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>293.0313262305118</v>
+        <v>340.2687303644548</v>
       </c>
       <c r="C21" t="n">
-        <v>293.0313262305118</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D21" t="n">
-        <v>293.0313262305118</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E21" t="n">
-        <v>293.0313262305118</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F21" t="n">
-        <v>293.0313262305118</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>154.3005008131273</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>40.93136522070664</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5835,16 +5837,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>461.2466632505798</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>461.2466632505798</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>461.2466632505798</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X21" t="n">
-        <v>461.2466632505798</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y21" t="n">
-        <v>461.2466632505798</v>
+        <v>340.2687303644548</v>
       </c>
     </row>
     <row r="22">
@@ -5884,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
         <v>829.5248650203655</v>
@@ -5938,22 +5940,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>231.8830517671884</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C23" t="n">
-        <v>231.8830517671884</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D23" t="n">
-        <v>231.8830517671884</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E23" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>475.3318284112885</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>475.3318284112885</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V23" t="n">
-        <v>475.3318284112885</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W23" t="n">
-        <v>475.3318284112885</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>475.3318284112885</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y23" t="n">
-        <v>231.8830517671884</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>431.3726917782591</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C24" t="n">
-        <v>431.3726917782591</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D24" t="n">
-        <v>431.3726917782591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6075,43 +6077,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>807.3483275632811</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>807.3483275632811</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>807.3483275632811</v>
+        <v>577.8206902843338</v>
       </c>
       <c r="V24" t="n">
-        <v>807.3483275632811</v>
+        <v>342.668582052591</v>
       </c>
       <c r="W24" t="n">
-        <v>807.3483275632811</v>
+        <v>342.668582052591</v>
       </c>
       <c r="X24" t="n">
-        <v>807.3483275632811</v>
+        <v>342.668582052591</v>
       </c>
       <c r="Y24" t="n">
-        <v>599.5880287983272</v>
+        <v>342.668582052591</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
         <v>829.5248650203655</v>
@@ -6187,10 +6189,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>964.0571555106362</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="C26" t="n">
-        <v>964.0571555106362</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="D26" t="n">
-        <v>964.0571555106362</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="E26" t="n">
-        <v>964.0571555106362</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="F26" t="n">
-        <v>730.8505943024719</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="G26" t="n">
-        <v>487.4018176583718</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="H26" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>82.32787816303323</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>756.2968567456824</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="C27" t="n">
-        <v>756.2968567456824</v>
+        <v>387.9631634165672</v>
       </c>
       <c r="D27" t="n">
-        <v>668.2068788942177</v>
+        <v>387.9631634165672</v>
       </c>
       <c r="E27" t="n">
-        <v>508.9694238887622</v>
+        <v>228.7257084111117</v>
       </c>
       <c r="F27" t="n">
-        <v>362.4348659156472</v>
+        <v>82.1911504379967</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>82.1911504379967</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>82.1911504379967</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6309,13 +6311,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="X27" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="Y27" t="n">
-        <v>756.2968567456824</v>
+        <v>562.4161926976942</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6494,19 +6496,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>327.2640844659515</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C30" t="n">
-        <v>327.2640844659515</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D30" t="n">
-        <v>178.3296748047002</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6549,16 +6551,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6579,13 +6581,13 @@
         <v>327.2640844659515</v>
       </c>
       <c r="W30" t="n">
-        <v>327.2640844659515</v>
+        <v>168.215552771464</v>
       </c>
       <c r="X30" t="n">
-        <v>327.2640844659515</v>
+        <v>168.215552771464</v>
       </c>
       <c r="Y30" t="n">
-        <v>327.2640844659515</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
         <v>19.28114311021272</v>
@@ -6655,16 +6657,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="C32" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="D32" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="E32" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="F32" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="G32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6737,13 +6739,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>481.618781308658</v>
+        <v>552.3930418464681</v>
       </c>
       <c r="C33" t="n">
-        <v>307.165752027531</v>
+        <v>377.9400125653411</v>
       </c>
       <c r="D33" t="n">
-        <v>307.165752027531</v>
+        <v>229.0056029040899</v>
       </c>
       <c r="E33" t="n">
-        <v>307.165752027531</v>
+        <v>69.76814789863437</v>
       </c>
       <c r="F33" t="n">
-        <v>307.165752027531</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>168.4349266101465</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>55.0657910177258</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,10 +6785,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
         <v>542.809531908403</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>689.4702815141908</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X33" t="n">
-        <v>481.618781308658</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y33" t="n">
-        <v>481.618781308658</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>812.6742080953335</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W35" t="n">
-        <v>812.6742080953335</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.03527576299844</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7041,25 +7043,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>749.6428370738824</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>749.6428370738824</v>
       </c>
       <c r="U36" t="n">
-        <v>259.0600686093459</v>
+        <v>749.6428370738824</v>
       </c>
       <c r="V36" t="n">
-        <v>259.0600686093459</v>
+        <v>749.6428370738824</v>
       </c>
       <c r="W36" t="n">
-        <v>259.0600686093459</v>
+        <v>749.6428370738824</v>
       </c>
       <c r="X36" t="n">
-        <v>259.0600686093459</v>
+        <v>541.7913368683496</v>
       </c>
       <c r="Y36" t="n">
-        <v>188.2506127830665</v>
+        <v>334.0310381033958</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>874.2758585542716</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>122.6530896684844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>259.0600686093459</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>23.90796037760316</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W39" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
         <v>19.28114311021272</v>
@@ -7351,31 +7353,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>506.1786963984129</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C41" t="n">
-        <v>506.1786963984129</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="D41" t="n">
-        <v>506.1786963984129</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>942.6594228129348</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>731.528039392485</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T41" t="n">
-        <v>506.1786963984129</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U41" t="n">
-        <v>506.1786963984129</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V41" t="n">
-        <v>506.1786963984129</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W41" t="n">
-        <v>506.1786963984129</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X41" t="n">
-        <v>506.1786963984129</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U42" t="n">
-        <v>432.4774131586771</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V42" t="n">
-        <v>432.4774131586771</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W42" t="n">
-        <v>189.028636514577</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X42" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y42" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I43" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J43" t="n">
-        <v>852.019301208126</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K43" t="n">
         <v>829.5248650203655</v>
@@ -7585,34 +7587,34 @@
         <v>964.0571555106362</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="44">
@@ -7625,19 +7627,19 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7679,16 +7681,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X44" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y44" t="n">
         <v>749.627473042513</v>
@@ -7701,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>577.9072497513741</v>
+        <v>315.5042433973647</v>
       </c>
       <c r="C45" t="n">
-        <v>577.9072497513741</v>
+        <v>315.5042433973647</v>
       </c>
       <c r="D45" t="n">
-        <v>577.9072497513741</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E45" t="n">
-        <v>418.6697947459187</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F45" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
         <v>20.03527576299844</v>
@@ -7728,22 +7730,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N45" t="n">
-        <v>712.019119383956</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7764,13 +7766,13 @@
         <v>761.8705608694022</v>
       </c>
       <c r="W45" t="n">
-        <v>577.9072497513741</v>
+        <v>523.3557436028975</v>
       </c>
       <c r="X45" t="n">
-        <v>577.9072497513741</v>
+        <v>315.5042433973647</v>
       </c>
       <c r="Y45" t="n">
-        <v>577.9072497513741</v>
+        <v>315.5042433973647</v>
       </c>
     </row>
     <row r="46">
@@ -7780,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
         <v>19.28114311021272</v>
@@ -7849,7 +7851,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>273.6023800549303</v>
+        <v>271.44025767069</v>
       </c>
       <c r="L2" t="n">
-        <v>287.1168215956966</v>
+        <v>289.2789439799371</v>
       </c>
       <c r="M2" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>282.9255926065406</v>
+        <v>282.9255926065408</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>283.6107404316366</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>191.3539679843088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>193.4844405477278</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>184.8542410932832</v>
       </c>
       <c r="O3" t="n">
-        <v>193.9466510701538</v>
+        <v>196.1087734543943</v>
       </c>
       <c r="P3" t="n">
-        <v>187.48693642428</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>193.4943030959714</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8538,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O9" t="n">
-        <v>242.4075215744184</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8778,7 +8780,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>231.1529892133072</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9006,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9246,19 +9248,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N18" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9483,19 +9485,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9723,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,16 +9959,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10197,10 +10199,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,13 +10433,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10902,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.0431814381598</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11151,13 +11153,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23264,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>412.0374214579384</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,22 +23302,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>108.137662477717</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23334,31 +23336,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>5.081180684590322</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>47.45032347222741</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23400,10 +23402,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23504,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23537,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>237.3633207320585</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23574,22 +23576,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23619,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>85.56267508295639</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23735,22 +23737,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23774,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>160.9567151697601</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23808,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23820,19 +23822,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>86.87337592461267</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23868,7 +23870,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23944,10 +23946,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23969,10 +23971,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>343.4899854645034</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -24011,22 +24013,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24045,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24057,16 +24059,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>67.96291296202611</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>34.91942896372123</v>
       </c>
     </row>
     <row r="22">
@@ -24130,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24178,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24212,10 +24214,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24224,7 +24226,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>108.137662477717</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24269,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,31 +24284,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,19 +24332,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>116.6992655885995</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>15.25045261077318</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24351,7 +24353,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24382,7 +24384,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
         <v>93.35918011667277</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24452,19 +24454,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>277.0585344134748</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24488,7 +24490,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24503,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24522,10 +24524,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>60.23598749168869</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24534,13 +24536,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>27.8623169231668</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,13 +24572,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24588,7 +24590,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24601,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>337.6653060427309</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24734,7 +24736,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24743,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24765,10 +24767,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>145.2562464712422</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24819,7 +24821,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>94.23693678337699</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24847,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24895,7 +24897,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24977,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,31 +24995,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>95.08707765284646</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>54.71642274923499</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25056,10 +25058,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25084,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25129,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>192.3884445891959</v>
       </c>
       <c r="C35" t="n">
         <v>124.2586028933485</v>
@@ -25175,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25211,13 +25213,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>307.3148329761767</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>145.2236497783945</v>
@@ -25242,7 +25244,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25254,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,13 +25283,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>59.57083000409476</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25296,10 +25298,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>135.5813345092877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25351,16 +25353,16 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25397,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25433,25 +25435,25 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>225.414031377446</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25488,10 +25490,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>54.73595870413449</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25530,7 +25532,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25567,13 +25569,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25591,7 +25593,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25615,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>171.5597290184211</v>
       </c>
     </row>
     <row r="41">
@@ -25634,16 +25636,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>245.0643151220611</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25670,16 +25672,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>138.6760617849701</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25716,7 +25718,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25728,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>116.1075087528021</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>183.5387704527986</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25804,13 +25806,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25825,13 +25827,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25865,7 +25867,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25880,7 +25882,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25919,7 +25921,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25947,19 +25949,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -26004,10 +26006,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>69.57130515407184</v>
+        <v>15.56531406707998</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26029,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
   </sheetData>
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>307397.244182965</v>
+        <v>307397.2441829651</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>307397.244182965</v>
+        <v>307397.2441829651</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.460138034</v>
       </c>
       <c r="C2" t="n">
+        <v>677359.4601380336</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380335</v>
-      </c>
-      <c r="D2" t="n">
-        <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
         <v>274165.1096766985</v>
@@ -26326,16 +26328,16 @@
         <v>274165.1096766985</v>
       </c>
       <c r="G2" t="n">
+        <v>274165.1096766985</v>
+      </c>
+      <c r="H2" t="n">
         <v>274165.1096766984</v>
-      </c>
-      <c r="H2" t="n">
-        <v>274165.1096766985</v>
       </c>
       <c r="I2" t="n">
         <v>274165.1096766985</v>
       </c>
       <c r="J2" t="n">
-        <v>274165.1096766983</v>
+        <v>274165.1096766985</v>
       </c>
       <c r="K2" t="n">
         <v>274165.1096766985</v>
@@ -26347,7 +26349,7 @@
         <v>274165.1096766985</v>
       </c>
       <c r="N2" t="n">
-        <v>274165.1096766985</v>
+        <v>274165.1096766984</v>
       </c>
       <c r="O2" t="n">
         <v>274165.1096766985</v>
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940139</v>
+        <v>17933.27925940143</v>
       </c>
       <c r="C3" t="n">
-        <v>60576.32218666811</v>
+        <v>60576.32218666808</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>14001.23214027929</v>
+        <v>14001.23214027932</v>
       </c>
       <c r="K3" t="n">
-        <v>48256.95293363261</v>
+        <v>48256.95293363258</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>329956.5536505856</v>
+        <v>330850.5717236418</v>
       </c>
       <c r="C4" t="n">
-        <v>279533.6333046067</v>
+        <v>280759.3528219365</v>
       </c>
       <c r="D4" t="n">
-        <v>279533.6333046067</v>
+        <v>280759.3528219365</v>
       </c>
       <c r="E4" t="n">
-        <v>588.1056701472498</v>
+        <v>1813.825187477099</v>
       </c>
       <c r="F4" t="n">
-        <v>588.1056701472498</v>
+        <v>1813.825187477099</v>
       </c>
       <c r="G4" t="n">
-        <v>588.1056701472498</v>
+        <v>1813.825187477099</v>
       </c>
       <c r="H4" t="n">
-        <v>588.1056701472498</v>
+        <v>1813.825187477099</v>
       </c>
       <c r="I4" t="n">
-        <v>588.1056701472498</v>
+        <v>1813.825187477099</v>
       </c>
       <c r="J4" t="n">
-        <v>588.1056701472498</v>
+        <v>1813.825187477099</v>
       </c>
       <c r="K4" t="n">
-        <v>588.1056701472498</v>
+        <v>1813.825187477099</v>
       </c>
       <c r="L4" t="n">
-        <v>588.1056701472498</v>
+        <v>1813.825187477099</v>
       </c>
       <c r="M4" t="n">
-        <v>588.1056701472498</v>
+        <v>1813.825187477099</v>
       </c>
       <c r="N4" t="n">
-        <v>588.1056701472498</v>
+        <v>1813.825187477099</v>
       </c>
       <c r="O4" t="n">
-        <v>588.1056701472498</v>
+        <v>1813.825187477098</v>
       </c>
       <c r="P4" t="n">
-        <v>588.1056701472498</v>
+        <v>1813.825187477099</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36881.16176380494</v>
+        <v>36881.16176380495</v>
       </c>
       <c r="C5" t="n">
         <v>48281.26876376167</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>292588.4654642417</v>
+        <v>291694.4473911857</v>
       </c>
       <c r="C6" t="n">
-        <v>288968.2358829971</v>
+        <v>287742.5163656673</v>
       </c>
       <c r="D6" t="n">
-        <v>349544.5580696653</v>
+        <v>348318.8385523353</v>
       </c>
       <c r="E6" t="n">
-        <v>258923.3352427896</v>
+        <v>257697.6157254597</v>
       </c>
       <c r="F6" t="n">
-        <v>258923.3352427896</v>
+        <v>257697.6157254597</v>
       </c>
       <c r="G6" t="n">
-        <v>258923.3352427895</v>
+        <v>257697.6157254597</v>
       </c>
       <c r="H6" t="n">
-        <v>258923.3352427896</v>
+        <v>257697.6157254596</v>
       </c>
       <c r="I6" t="n">
-        <v>258923.3352427896</v>
+        <v>257697.6157254597</v>
       </c>
       <c r="J6" t="n">
-        <v>244922.1031025101</v>
+        <v>243696.3835851804</v>
       </c>
       <c r="K6" t="n">
-        <v>210666.3823091569</v>
+        <v>209440.6627918271</v>
       </c>
       <c r="L6" t="n">
-        <v>258923.3352427896</v>
+        <v>257697.6157254597</v>
       </c>
       <c r="M6" t="n">
-        <v>258923.3352427896</v>
+        <v>257697.6157254597</v>
       </c>
       <c r="N6" t="n">
-        <v>258923.3352427896</v>
+        <v>257697.6157254596</v>
       </c>
       <c r="O6" t="n">
-        <v>258923.3352427896</v>
+        <v>257697.6157254597</v>
       </c>
       <c r="P6" t="n">
-        <v>258923.3352427896</v>
+        <v>257697.6157254597</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994987</v>
       </c>
       <c r="C4" t="n">
         <v>241.0142888776591</v>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994987</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5017598677093</v>
+        <v>187.5017598677092</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994987</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5017598677093</v>
+        <v>187.5017598677092</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994987</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5017598677093</v>
+        <v>187.5017598677092</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27385,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>334.7965345202979</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>353.3635167317616</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>361.7902085051852</v>
       </c>
       <c r="H2" t="n">
-        <v>285.9622731058174</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27421,19 +27423,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>194.0557165056729</v>
+        <v>155.5075405762955</v>
       </c>
       <c r="T2" t="n">
-        <v>169.5833205541816</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>197.8331238978867</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27461,7 +27463,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>101.0578213389328</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27473,7 +27475,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>58.72291522654671</v>
+        <v>58.72291522654659</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27503,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>46.64530514269326</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>118.1706420938879</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>179.5541378552689</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>152.2604561935277</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>152.1701667673546</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27552,16 +27554,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>158.3347547678542</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>101.9379459173084</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>39.8466511067229</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27591,16 +27593,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>232.8065003465411</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>233.0104693266412</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>202.2691865586751</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27625,19 +27627,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>359.7625155545542</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>351.1641048164582</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -27670,7 +27672,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>21.46887964564732</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>59.57769427051963</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,10 +27745,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27761,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27789,7 +27791,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>31.76164565717804</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27825,7 +27827,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>97.48006257801995</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27856,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>176.6722207847417</v>
       </c>
       <c r="G8" t="n">
-        <v>179.3549983061512</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27904,7 +27906,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27932,25 +27934,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>71.49651910529278</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>16.72245187223719</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27983,7 +27985,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27995,10 +27997,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28035,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>178.3269633122123</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570948</v>
       </c>
       <c r="L2" t="n">
-        <v>51.35040662570935</v>
+        <v>53.51252900994987</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994987</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>53.51252900994987</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>51.35040662570948</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>53.51252900994987</v>
       </c>
       <c r="O3" t="n">
-        <v>51.35040662570935</v>
+        <v>53.51252900994987</v>
       </c>
       <c r="P3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35182,7 +35184,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35258,19 +35260,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O9" t="n">
-        <v>99.8112771299739</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35498,7 +35500,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>99.8112771299739</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35507,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35966,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>169.9091475161415</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36203,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36443,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,16 +36679,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36917,10 +36919,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,13 +37153,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37312,7 +37314,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9091475161415</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37859,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
@@ -37871,13 +37873,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Output Files/100000/Output_0_33.xlsx
+++ b/Outputs/1. Budget/Output Files/100000/Output_0_33.xlsx
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2268313.026681546</v>
+        <v>2261697.352903482</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4859178.531877564</v>
+        <v>4859178.531877563</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>28.3085004556398</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,22 +667,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>47.13383555196383</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>53.51252900994987</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>53.51252900994987</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.51252900994987</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -740,22 +740,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D3" t="n">
-        <v>46.38724422570597</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="H3" t="n">
-        <v>53.51252900994987</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.51252900994987</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>53.51252900994987</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>3.892417739585417</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>53.51252900994987</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994987</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>23.44046883036203</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>64.1386326986768</v>
+        <v>33.60023339142369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>123.6003327477366</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>217.73626715623</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>230.2038249569697</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>238.5634410073764</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>117.8074216906838</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>95.51299236425928</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,70 +1290,70 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>167.6273183037254</v>
+        <v>29.07035593355321</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1691,19 +1691,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>21.0507685937734</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -1739,13 +1739,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>147.2379120664689</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -1900,10 +1900,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>90.38893773807641</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>100.3796369526212</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2101,10 +2101,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>9.234466016111838</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2222,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>206.0948599139378</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>170.7632668135831</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -2453,10 +2453,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>210.6909294702016</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>117.392300386009</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>1.667423870585606</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2654,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>61.53431592824828</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2791,64 +2791,64 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>212.285385643442</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>157.4580463775426</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3107,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>15.60020578567533</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>49.98213474053743</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>190.3453970742847</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>84.4730545048111</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>112.1123410997431</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3511,17 +3511,17 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>241.0142888776591</v>
@@ -3602,10 +3602,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.66067414728059</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -3644,7 +3644,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -3875,16 +3875,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>116.6930783966232</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>237.3811362441418</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -4061,22 +4061,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>44.59914040735609</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>236.1296690938396</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.9970564337895</v>
+        <v>131.4026115291025</v>
       </c>
       <c r="C2" t="n">
-        <v>159.9970564337895</v>
+        <v>131.4026115291025</v>
       </c>
       <c r="D2" t="n">
-        <v>159.9970564337895</v>
+        <v>131.4026115291025</v>
       </c>
       <c r="E2" t="n">
-        <v>112.3871215328159</v>
+        <v>131.4026115291025</v>
       </c>
       <c r="F2" t="n">
-        <v>58.33406192680597</v>
+        <v>124.457110779899</v>
       </c>
       <c r="G2" t="n">
-        <v>4.28100232079599</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079599</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079599</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
-        <v>4.28100232079599</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>55.11790488024837</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
-        <v>108.0953086000987</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="M2" t="n">
-        <v>108.0953086000987</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="N2" t="n">
-        <v>161.0727123199491</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O2" t="n">
-        <v>214.0501160397995</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
-        <v>214.0501160397995</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.0501160397995</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R2" t="n">
-        <v>214.0501160397995</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>159.9970564337895</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T2" t="n">
-        <v>159.9970564337895</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U2" t="n">
-        <v>159.9970564337895</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V2" t="n">
-        <v>159.9970564337895</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W2" t="n">
-        <v>159.9970564337895</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X2" t="n">
-        <v>159.9970564337895</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="Y2" t="n">
-        <v>159.9970564337895</v>
+        <v>159.9970564337892</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.9439968277795</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="C3" t="n">
-        <v>105.9439968277795</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="D3" t="n">
-        <v>59.08819457959168</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="E3" t="n">
-        <v>59.08819457959168</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="F3" t="n">
-        <v>59.08819457959168</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="G3" t="n">
-        <v>59.08819457959168</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="H3" t="n">
-        <v>5.035134973581703</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581703</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
-        <v>4.28100232079599</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>4.28100232079599</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>4.28100232079599</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M3" t="n">
-        <v>55.11790488024837</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="N3" t="n">
-        <v>108.0953086000987</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O3" t="n">
-        <v>161.0727123199491</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199491</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
-        <v>214.0501160397995</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>159.9970564337895</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>105.9439968277795</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T3" t="n">
-        <v>105.9439968277795</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>105.9439968277795</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>105.9439968277795</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W3" t="n">
-        <v>105.9439968277795</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X3" t="n">
-        <v>105.9439968277795</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="Y3" t="n">
-        <v>105.9439968277795</v>
+        <v>159.9970564337892</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.8132928110667</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C4" t="n">
-        <v>138.8132928110667</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D4" t="n">
-        <v>138.8132928110667</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E4" t="n">
-        <v>138.8132928110667</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F4" t="n">
-        <v>138.8132928110667</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G4" t="n">
-        <v>138.8132928110667</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
-        <v>134.8815577205764</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I4" t="n">
-        <v>80.82849811456643</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855645</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
-        <v>4.28100232079599</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
-        <v>31.59512732850897</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>70.78316552073115</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>114.4740161761675</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>138.8132928110667</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.8132928110667</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="R4" t="n">
-        <v>138.8132928110667</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="S4" t="n">
-        <v>138.8132928110667</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="T4" t="n">
-        <v>138.8132928110667</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="U4" t="n">
-        <v>138.8132928110667</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="V4" t="n">
-        <v>138.8132928110667</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="W4" t="n">
-        <v>138.8132928110667</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="X4" t="n">
-        <v>138.8132928110667</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.8132928110667</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>559.1338160830064</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C5" t="n">
         <v>315.6850394389064</v>
@@ -4558,10 +4558,10 @@
         <v>308.7395386897029</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>487.2836868729568</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="C6" t="n">
-        <v>487.2836868729568</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D6" t="n">
-        <v>487.2836868729568</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E6" t="n">
-        <v>487.2836868729568</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
         <v>362.4348659156472</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>487.2836868729568</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W6" t="n">
-        <v>487.2836868729568</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="X6" t="n">
-        <v>487.2836868729568</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="Y6" t="n">
-        <v>487.2836868729568</v>
+        <v>508.9694238887622</v>
       </c>
     </row>
     <row r="7">
@@ -4743,25 +4743,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>738.7078125165641</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C8" t="n">
-        <v>738.7078125165641</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D8" t="n">
-        <v>738.7078125165641</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E8" t="n">
-        <v>738.7078125165641</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F8" t="n">
-        <v>506.1786963984129</v>
+        <v>488.3135351232606</v>
       </c>
       <c r="G8" t="n">
-        <v>262.7299197543128</v>
+        <v>472.856224501912</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4840,16 +4840,16 @@
         <v>738.7078125165641</v>
       </c>
       <c r="V8" t="n">
-        <v>738.7078125165641</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W8" t="n">
-        <v>738.7078125165641</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X8" t="n">
-        <v>738.7078125165641</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y8" t="n">
-        <v>738.7078125165641</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>206.8126749707503</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>206.8126749707503</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D9" t="n">
-        <v>206.8126749707503</v>
+        <v>640.669716568258</v>
       </c>
       <c r="E9" t="n">
-        <v>206.8126749707503</v>
+        <v>481.4322615628025</v>
       </c>
       <c r="F9" t="n">
-        <v>206.8126749707503</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>206.8126749707503</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
         <v>110.334904905842</v>
@@ -4889,13 +4889,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
-        <v>781.4136778972854</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O9" t="n">
         <v>781.4136778972854</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>582.7883107557723</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>375.0280119908184</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -5001,13 +5001,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>587.9903182850353</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="C12" t="n">
-        <v>418.6697947459187</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D12" t="n">
-        <v>418.6697947459187</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E12" t="n">
         <v>418.6697947459187</v>
@@ -5123,22 +5123,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>781.4136778972854</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5217,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>110.334904905842</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C15" t="n">
-        <v>110.334904905842</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D15" t="n">
-        <v>110.334904905842</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E15" t="n">
-        <v>110.334904905842</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F15" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G15" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H15" t="n">
         <v>110.334904905842</v>
@@ -5387,22 +5387,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V15" t="n">
-        <v>110.334904905842</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W15" t="n">
-        <v>110.334904905842</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X15" t="n">
-        <v>110.334904905842</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y15" t="n">
-        <v>110.334904905842</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="16">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C17" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D17" t="n">
         <v>31.35113235729608</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U17" t="n">
-        <v>274.7999090013961</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V17" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W17" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X17" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y17" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="18">
@@ -5597,16 +5597,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O18" t="n">
         <v>712.019119383956</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>30.58726043968704</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C20" t="n">
-        <v>30.58726043968704</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>517.4848137278872</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U20" t="n">
-        <v>274.0360370837871</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V20" t="n">
-        <v>274.0360370837871</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W20" t="n">
-        <v>274.0360370837871</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X20" t="n">
-        <v>30.58726043968704</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y20" t="n">
-        <v>30.58726043968704</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="21">
@@ -5846,7 +5846,7 @@
         <v>496.4894350879777</v>
       </c>
       <c r="O21" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5870,10 +5870,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>720.6083788665362</v>
+        <v>755.8805293349415</v>
       </c>
       <c r="X21" t="n">
-        <v>512.7568786610034</v>
+        <v>548.0290291294086</v>
       </c>
       <c r="Y21" t="n">
         <v>340.2687303644548</v>
@@ -5974,22 +5974,22 @@
         <v>477.1596022224361</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6074,34 +6074,34 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U24" t="n">
-        <v>577.8206902843338</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V24" t="n">
         <v>342.668582052591</v>
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>562.4161926976942</v>
+        <v>354.6558939327403</v>
       </c>
       <c r="C27" t="n">
-        <v>387.9631634165672</v>
+        <v>180.2028646516133</v>
       </c>
       <c r="D27" t="n">
-        <v>387.9631634165672</v>
+        <v>180.2028646516133</v>
       </c>
       <c r="E27" t="n">
-        <v>228.7257084111117</v>
+        <v>20.96540964615778</v>
       </c>
       <c r="F27" t="n">
-        <v>82.1911504379967</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>82.1911504379967</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>82.1911504379967</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6350,7 +6350,7 @@
         <v>562.4161926976942</v>
       </c>
       <c r="Y27" t="n">
-        <v>562.4161926976942</v>
+        <v>354.6558939327403</v>
       </c>
     </row>
     <row r="28">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6496,19 +6496,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6518,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>168.215552771464</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="C30" t="n">
-        <v>168.215552771464</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="D30" t="n">
         <v>19.28114311021272</v>
@@ -6551,7 +6551,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6581,13 +6581,13 @@
         <v>327.2640844659515</v>
       </c>
       <c r="W30" t="n">
-        <v>168.215552771464</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X30" t="n">
-        <v>168.215552771464</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y30" t="n">
-        <v>168.215552771464</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="31">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>552.3930418464681</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C33" t="n">
-        <v>377.9400125653411</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>229.0056029040899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>69.76814789863437</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6782,49 +6782,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W33" t="n">
-        <v>720.6083788665362</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="X33" t="n">
-        <v>720.6083788665362</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="Y33" t="n">
-        <v>720.6083788665362</v>
+        <v>209.491956013234</v>
       </c>
     </row>
     <row r="34">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>274.7999090013961</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W35" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.8157010833278</v>
+        <v>279.0604900729671</v>
       </c>
       <c r="C36" t="n">
-        <v>165.8157010833278</v>
+        <v>104.6074607918401</v>
       </c>
       <c r="D36" t="n">
-        <v>165.8157010833278</v>
+        <v>104.6074607918401</v>
       </c>
       <c r="E36" t="n">
-        <v>165.8157010833278</v>
+        <v>104.6074607918401</v>
       </c>
       <c r="F36" t="n">
         <v>19.28114311021272</v>
@@ -7019,19 +7019,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7043,25 +7043,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>749.6428370738824</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>749.6428370738824</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>749.6428370738824</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>749.6428370738824</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W36" t="n">
-        <v>749.6428370738824</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X36" t="n">
-        <v>541.7913368683496</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y36" t="n">
-        <v>334.0310381033958</v>
+        <v>447.2758270930352</v>
       </c>
     </row>
     <row r="37">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="C38" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="D38" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="E38" t="n">
         <v>233.7108255783361</v>
       </c>
-      <c r="C38" t="n">
+      <c r="F38" t="n">
         <v>233.7108255783361</v>
       </c>
-      <c r="D38" t="n">
+      <c r="G38" t="n">
         <v>233.7108255783361</v>
-      </c>
-      <c r="E38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G38" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7207,19 +7207,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V38" t="n">
         <v>720.6083788665362</v>
       </c>
-      <c r="V38" t="n">
+      <c r="W38" t="n">
         <v>477.1596022224361</v>
       </c>
-      <c r="W38" t="n">
-        <v>233.7108255783361</v>
-      </c>
       <c r="X38" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y38" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7259,19 +7259,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N39" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V39" t="n">
-        <v>298.4948343740486</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W39" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X39" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7493,19 +7493,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N42" t="n">
-        <v>851.8101010141643</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O42" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
         <v>894.6625969973069</v>
@@ -7514,22 +7514,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T42" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U42" t="n">
-        <v>588.4532163200711</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V42" t="n">
-        <v>470.5814199598456</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W42" t="n">
-        <v>227.1326433157456</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X42" t="n">
         <v>19.28114311021272</v>
@@ -7648,7 +7648,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
         <v>122.2961490211351</v>
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>315.5042433973647</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="C45" t="n">
-        <v>315.5042433973647</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="D45" t="n">
-        <v>166.5698337361135</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="E45" t="n">
-        <v>166.5698337361135</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
         <v>20.03527576299844</v>
@@ -7733,19 +7733,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N45" t="n">
-        <v>496.4894350879777</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O45" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7766,13 +7766,13 @@
         <v>761.8705608694022</v>
       </c>
       <c r="W45" t="n">
-        <v>523.3557436028975</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X45" t="n">
-        <v>315.5042433973647</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y45" t="n">
-        <v>315.5042433973647</v>
+        <v>554.0190606638694</v>
       </c>
     </row>
     <row r="46">
@@ -7848,7 +7848,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
         <v>19.28114311021272</v>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>271.44025767069</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>289.2789439799371</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>281.6966398529821</v>
       </c>
       <c r="N2" t="n">
-        <v>282.9255926065408</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>283.6107404316366</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>193.4844405477278</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>184.8542410932832</v>
+        <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
-        <v>196.1087734543943</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959714</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8537,16 +8537,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8780,16 +8780,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9245,19 +9245,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9494,10 +9494,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P21" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9722,22 +9722,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9968,13 +9968,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>312.5030352242461</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10199,10 +10199,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10430,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10907,22 +10907,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
@@ -11153,10 +11153,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>185.8815939223662</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11381,7 +11381,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
@@ -11390,13 +11390,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>5.081180684590322</v>
+        <v>143.6381430547625</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23579,19 +23579,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>126.3942969708654</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23627,13 +23627,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>85.56267508295639</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23737,7 +23737,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -23788,10 +23788,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>160.9567151697601</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>227.3726215175137</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23974,7 +23974,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>343.4899854645034</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23989,10 +23989,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>201.2414235542941</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24110,13 +24110,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>45.60012324698181</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>34.91942896372123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24214,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>203.017351871693</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24341,10 +24341,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>15.25045261077318</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>115.4082867634163</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24533,7 +24533,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>143.4017885227983</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24542,10 +24542,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>27.8623169231668</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C29" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24736,7 +24736,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24764,7 +24764,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>83.55624250011644</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24821,7 +24821,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>94.23693678337699</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24995,19 +24995,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>150.932977864192</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>95.08707765284646</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25043,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25064,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>192.3884445891959</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25235,7 +25235,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25244,7 +25244,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>60.59615788857278</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>59.57083000409476</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25399,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>169.6449844288197</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25408,7 +25408,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25447,7 +25447,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>86.73796959247585</v>
@@ -25490,10 +25490,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>54.73595870413449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25532,7 +25532,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25763,16 +25763,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>116.1075087528021</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>14.31384691677781</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25949,22 +25949,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>113.0459400480449</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26006,7 +26006,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>15.56531406707998</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y46" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380335</v>
@@ -26325,19 +26325,19 @@
         <v>274165.1096766985</v>
       </c>
       <c r="F2" t="n">
-        <v>274165.1096766985</v>
+        <v>274165.1096766984</v>
       </c>
       <c r="G2" t="n">
         <v>274165.1096766985</v>
       </c>
       <c r="H2" t="n">
-        <v>274165.1096766984</v>
+        <v>274165.1096766985</v>
       </c>
       <c r="I2" t="n">
         <v>274165.1096766985</v>
       </c>
       <c r="J2" t="n">
-        <v>274165.1096766985</v>
+        <v>274165.1096766983</v>
       </c>
       <c r="K2" t="n">
         <v>274165.1096766985</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940143</v>
+        <v>17933.27925940137</v>
       </c>
       <c r="C3" t="n">
-        <v>60576.32218666808</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>14001.23214027932</v>
+        <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>48256.95293363258</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>330850.5717236418</v>
+        <v>331446.5837723461</v>
       </c>
       <c r="C4" t="n">
-        <v>280759.3528219365</v>
+        <v>281576.4991668231</v>
       </c>
       <c r="D4" t="n">
-        <v>280759.3528219365</v>
+        <v>281576.4991668231</v>
       </c>
       <c r="E4" t="n">
-        <v>1813.825187477099</v>
+        <v>2630.971532363665</v>
       </c>
       <c r="F4" t="n">
-        <v>1813.825187477099</v>
+        <v>2630.971532363665</v>
       </c>
       <c r="G4" t="n">
-        <v>1813.825187477099</v>
+        <v>2630.971532363665</v>
       </c>
       <c r="H4" t="n">
-        <v>1813.825187477099</v>
+        <v>2630.971532363665</v>
       </c>
       <c r="I4" t="n">
-        <v>1813.825187477099</v>
+        <v>2630.971532363664</v>
       </c>
       <c r="J4" t="n">
-        <v>1813.825187477099</v>
+        <v>2630.971532363665</v>
       </c>
       <c r="K4" t="n">
-        <v>1813.825187477099</v>
+        <v>2630.971532363665</v>
       </c>
       <c r="L4" t="n">
-        <v>1813.825187477099</v>
+        <v>2630.971532363664</v>
       </c>
       <c r="M4" t="n">
-        <v>1813.825187477099</v>
+        <v>2630.971532363664</v>
       </c>
       <c r="N4" t="n">
-        <v>1813.825187477099</v>
+        <v>2630.971532363664</v>
       </c>
       <c r="O4" t="n">
-        <v>1813.825187477098</v>
+        <v>2630.971532363665</v>
       </c>
       <c r="P4" t="n">
-        <v>1813.825187477099</v>
+        <v>2630.971532363665</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36881.16176380495</v>
+        <v>36881.16176380494</v>
       </c>
       <c r="C5" t="n">
         <v>48281.26876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>291694.4473911857</v>
+        <v>291098.4353424811</v>
       </c>
       <c r="C6" t="n">
-        <v>287742.5163656673</v>
+        <v>286925.3700207807</v>
       </c>
       <c r="D6" t="n">
-        <v>348318.8385523353</v>
+        <v>347501.6922074487</v>
       </c>
       <c r="E6" t="n">
-        <v>257697.6157254597</v>
+        <v>256880.4693805731</v>
       </c>
       <c r="F6" t="n">
-        <v>257697.6157254597</v>
+        <v>256880.4693805731</v>
       </c>
       <c r="G6" t="n">
-        <v>257697.6157254597</v>
+        <v>256880.4693805731</v>
       </c>
       <c r="H6" t="n">
-        <v>257697.6157254596</v>
+        <v>256880.4693805731</v>
       </c>
       <c r="I6" t="n">
-        <v>257697.6157254597</v>
+        <v>256880.4693805732</v>
       </c>
       <c r="J6" t="n">
-        <v>243696.3835851804</v>
+        <v>242879.2372402937</v>
       </c>
       <c r="K6" t="n">
-        <v>209440.6627918271</v>
+        <v>208623.5164469405</v>
       </c>
       <c r="L6" t="n">
-        <v>257697.6157254597</v>
+        <v>256880.4693805732</v>
       </c>
       <c r="M6" t="n">
-        <v>257697.6157254597</v>
+        <v>256880.4693805731</v>
       </c>
       <c r="N6" t="n">
-        <v>257697.6157254596</v>
+        <v>256880.4693805731</v>
       </c>
       <c r="O6" t="n">
-        <v>257697.6157254597</v>
+        <v>256880.4693805731</v>
       </c>
       <c r="P6" t="n">
-        <v>257697.6157254597</v>
+        <v>256880.4693805732</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994987</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
         <v>241.0142888776591</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994987</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5017598677092</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994987</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5017598677092</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994987</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5017598677092</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>354.4253412078408</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,22 +27387,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>334.7965345202979</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>353.3635167317616</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>361.7902085051852</v>
+        <v>361.7902085051853</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>285.9622731058174</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>155.5075405762955</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27438,7 +27438,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>274.2397294601852</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27460,22 +27460,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>119.195969978366</v>
       </c>
       <c r="D3" t="n">
-        <v>101.0578213389328</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>91.55668338343412</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>90.95627293750474</v>
       </c>
       <c r="H3" t="n">
-        <v>58.72291522654659</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.64530514269326</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>118.1706420938879</v>
+        <v>118.1706420938881</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27554,16 +27554,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>158.3347547678542</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>101.9379459173084</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>39.8466511067229</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,16 +27578,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>32.64951424174463</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>123.7808623672197</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>200.5761292066102</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>351.1641048164582</v>
+        <v>381.7025041237114</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27706,7 +27706,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>21.46887964564732</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>33.95871600468959</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27827,7 +27827,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>97.48006257801995</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>176.6722207847417</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>100.9113611083908</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27912,7 +27912,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27931,25 +27931,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>16.72245187223719</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27997,10 +27997,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>51.35040662570948</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>53.51252900994987</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="N2" t="n">
-        <v>53.51252900994987</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
-        <v>53.51252900994987</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>51.35040662570948</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>53.51252900994987</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="O3" t="n">
-        <v>53.51252900994987</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994987</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35257,16 +35257,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
@@ -35500,16 +35500,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35965,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36214,10 +36214,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P21" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36442,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36688,13 +36688,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>169.9067907798016</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36919,10 +36919,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37627,22 +37627,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37861,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
@@ -37873,10 +37873,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>43.28534947792182</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38101,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
@@ -38110,13 +38110,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Output Files/100000/Output_0_33.xlsx
+++ b/Outputs/1. Budget/Output Files/100000/Output_0_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2261697.352903482</v>
+        <v>2192846.056462046</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28.3085004556398</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>53.51252900994975</v>
+        <v>18.31780124109495</v>
       </c>
       <c r="H2" t="n">
         <v>53.51252900994975</v>
@@ -703,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -740,22 +740,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>46.38724422570588</v>
+      </c>
+      <c r="D3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="G3" t="n">
-        <v>46.38724422570589</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>53.51252900994975</v>
+        <v>1.170977004479167</v>
       </c>
       <c r="R4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>23.44046883036203</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>200.160833108852</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>33.60023339142369</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -983,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>217.73626715623</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>78.98946446248303</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>55.71194092525318</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>238.5634410073764</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,31 +1177,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>117.8074216906838</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>178.6958490491743</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,67 +1378,67 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3.26531605719669</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="X11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
+      <c r="Y11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,28 +1451,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>29.07035593355321</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>29.8892983910557</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1569,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -1666,7 +1666,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1685,31 +1685,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>21.0507685937734</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1745,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.94451941863394</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1855,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -1900,10 +1900,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="V17" t="n">
-        <v>100.3796369526212</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1922,19 +1922,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>58.1958364687712</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1976,22 +1976,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>62.43486741948623</v>
       </c>
     </row>
     <row r="19">
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2101,10 +2101,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>9.234466016111838</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -2140,13 +2140,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2216,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>206.0948599139378</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2332,7 +2332,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2399,10 +2399,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>117.392300386009</v>
+        <v>131.1096832932227</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,19 +2633,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1.667423870585606</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>226.7116255751702</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,13 +2794,13 @@
         <v>212.2853856434421</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>63.88882306452232</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2924,19 +2924,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>115.9464870703654</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2961,49 +2961,49 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>15.60020578567533</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -3116,22 +3116,22 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3161,22 +3161,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>28.54990387311947</v>
       </c>
     </row>
     <row r="34">
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3353,10 +3353,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>84.4730545048111</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3404,13 +3404,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>154.0649305093711</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3505,67 +3505,67 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3584,22 +3584,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>56.76365405481585</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,19 +3632,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>104.7383832473596</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,28 +3742,28 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>9.234466016111838</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3787,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -3881,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>237.3811362441418</v>
+        <v>197.7733550620193</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3939,13 +3939,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>44.30348359856706</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4064,22 +4064,22 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>44.59914040735609</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>45.73653111527436</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>131.4026115291025</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="C2" t="n">
-        <v>131.4026115291025</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="D2" t="n">
-        <v>131.4026115291025</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="E2" t="n">
-        <v>131.4026115291025</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="F2" t="n">
-        <v>124.457110779899</v>
+        <v>88.90688071034873</v>
       </c>
       <c r="G2" t="n">
         <v>70.40405117388919</v>
@@ -4333,16 +4333,16 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>4.28100232079598</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M2" t="n">
-        <v>55.11790488024824</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="N2" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
         <v>161.0727123199487</v>
@@ -4351,31 +4351,31 @@
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="T2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="U2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="V2" t="n">
-        <v>159.9970564337892</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="W2" t="n">
-        <v>159.9970564337892</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="X2" t="n">
-        <v>159.9970564337892</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="Y2" t="n">
-        <v>159.9970564337892</v>
+        <v>95.85238145955221</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="C3" t="n">
-        <v>105.9439968277793</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="D3" t="n">
-        <v>105.9439968277793</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="E3" t="n">
-        <v>105.9439968277793</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="F3" t="n">
-        <v>51.89093722176946</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="G3" t="n">
-        <v>5.035134973581694</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="H3" t="n">
         <v>5.035134973581694</v>
@@ -4412,10 +4412,10 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>57.25840604064623</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
-        <v>57.25840604064623</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="M3" t="n">
         <v>57.25840604064623</v>
@@ -4424,7 +4424,7 @@
         <v>108.0953086000985</v>
       </c>
       <c r="O3" t="n">
-        <v>161.0727123199487</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="P3" t="n">
         <v>161.0727123199487</v>
@@ -4436,25 +4436,25 @@
         <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="W3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="X3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Y3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.28100232079598</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="C4" t="n">
-        <v>4.28100232079598</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="D4" t="n">
-        <v>4.28100232079598</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="E4" t="n">
-        <v>4.28100232079598</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="F4" t="n">
-        <v>4.28100232079598</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="G4" t="n">
-        <v>4.28100232079598</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="H4" t="n">
-        <v>4.28100232079598</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="I4" t="n">
-        <v>4.28100232079598</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="J4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4509,31 +4509,31 @@
         <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.01130316959576</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="R4" t="n">
-        <v>27.95824356358591</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="S4" t="n">
-        <v>4.28100232079598</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="T4" t="n">
-        <v>4.28100232079598</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="U4" t="n">
-        <v>4.28100232079598</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="V4" t="n">
-        <v>4.28100232079598</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="W4" t="n">
-        <v>4.28100232079598</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="X4" t="n">
-        <v>4.28100232079598</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.28100232079598</v>
+        <v>134.8815577205762</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>315.6850394389064</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C5" t="n">
-        <v>315.6850394389064</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D5" t="n">
-        <v>315.6850394389064</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E5" t="n">
-        <v>315.6850394389064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>308.7395386897029</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
         <v>31.35113235729608</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y5" t="n">
-        <v>559.1338160830064</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>508.9694238887622</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C6" t="n">
-        <v>508.9694238887622</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D6" t="n">
-        <v>508.9694238887622</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4652,46 +4652,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9050472788936</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W6" t="n">
-        <v>508.9694238887622</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X6" t="n">
-        <v>508.9694238887622</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="Y6" t="n">
-        <v>508.9694238887622</v>
+        <v>179.2727307684539</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4752,25 +4752,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>495.259035872464</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="C8" t="n">
-        <v>495.259035872464</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="D8" t="n">
-        <v>495.259035872464</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="E8" t="n">
-        <v>495.259035872464</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="F8" t="n">
-        <v>488.3135351232606</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>472.856224501912</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>738.7078125165641</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>738.7078125165641</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>495.259035872464</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>495.259035872464</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>495.259035872464</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>495.259035872464</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="C9" t="n">
-        <v>789.6041262295092</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D9" t="n">
-        <v>640.669716568258</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E9" t="n">
-        <v>481.4322615628025</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
         <v>362.4348659156472</v>
@@ -4889,46 +4889,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>508.9694238887622</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U11" t="n">
-        <v>509.4769954460863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V11" t="n">
-        <v>509.4769954460863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W11" t="n">
-        <v>509.4769954460863</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X11" t="n">
-        <v>509.4769954460863</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y11" t="n">
-        <v>509.4769954460863</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>756.2056553051034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>726.8416594126254</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>577.9072497513741</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5126,19 +5126,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M12" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N12" t="n">
-        <v>487.8483949674443</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5150,22 +5150,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X12" t="n">
-        <v>756.2056553051034</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y12" t="n">
-        <v>756.2056553051034</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5217,31 +5217,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
         <v>19.28114311021272</v>
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5302,28 +5302,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>802.5825927271064</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S14" t="n">
-        <v>591.4512093066566</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T14" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U14" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V14" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W14" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X14" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y14" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>689.4702815141908</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C15" t="n">
-        <v>689.4702815141908</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5372,7 +5372,7 @@
         <v>621.8469951458151</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5381,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>689.4702815141908</v>
+        <v>962.092994481713</v>
       </c>
       <c r="W15" t="n">
-        <v>689.4702815141908</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="X15" t="n">
-        <v>689.4702815141908</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y15" t="n">
-        <v>689.4702815141908</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="16">
@@ -5421,22 +5421,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T17" t="n">
-        <v>376.1934816808115</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U17" t="n">
-        <v>132.7447050367114</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W17" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X17" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>560.6897102588255</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>386.2366809776985</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>237.3022713164472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>78.06481631099172</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
         <v>19.28114311021272</v>
@@ -5606,13 +5606,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>712.019119383956</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5624,22 +5624,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V18" t="n">
-        <v>728.9050472788936</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W18" t="n">
-        <v>728.9050472788936</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="X18" t="n">
-        <v>728.9050472788936</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="Y18" t="n">
-        <v>728.9050472788936</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5697,13 +5697,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5776,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T20" t="n">
-        <v>527.5764290961142</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U20" t="n">
-        <v>284.1276524520142</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V20" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W20" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X20" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>340.2687303644548</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W21" t="n">
-        <v>755.8805293349415</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X21" t="n">
-        <v>548.0290291294086</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y21" t="n">
-        <v>340.2687303644548</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>342.668582052591</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>168.215552771464</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6074,46 +6074,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>417.4543050195419</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>461.2466632505798</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V24" t="n">
-        <v>342.668582052591</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="W24" t="n">
-        <v>342.668582052591</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="X24" t="n">
-        <v>342.668582052591</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y24" t="n">
-        <v>342.668582052591</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="25">
@@ -6189,7 +6189,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
         <v>829.5248650203655</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>82.32787816303323</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C26" t="n">
-        <v>82.32787816303323</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D26" t="n">
-        <v>82.32787816303323</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>82.32787816303323</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>82.32787816303323</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>569.2254314512334</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>325.7766548071333</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>82.32787816303323</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>354.6558939327403</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>180.2028646516133</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>180.2028646516133</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>20.96540964615778</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>487.8483949674443</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U27" t="n">
-        <v>562.4161926976942</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V27" t="n">
-        <v>562.4161926976942</v>
+        <v>431.6993894271665</v>
       </c>
       <c r="W27" t="n">
-        <v>562.4161926976942</v>
+        <v>188.2506127830665</v>
       </c>
       <c r="X27" t="n">
-        <v>562.4161926976942</v>
+        <v>188.2506127830665</v>
       </c>
       <c r="Y27" t="n">
-        <v>354.6558939327403</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6442,10 +6442,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
         <v>19.28114311021272</v>
@@ -6518,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>83.81530782185143</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>83.81530782185143</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6572,22 +6572,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>562.4161926976942</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V30" t="n">
-        <v>327.2640844659515</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W30" t="n">
-        <v>83.81530782185143</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X30" t="n">
-        <v>83.81530782185143</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y30" t="n">
-        <v>83.81530782185143</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
         <v>19.28114311021272</v>
@@ -6651,22 +6651,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>720.6083788665362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C32" t="n">
-        <v>477.1596022224361</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D32" t="n">
-        <v>477.1596022224361</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E32" t="n">
-        <v>477.1596022224361</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="F32" t="n">
-        <v>477.1596022224361</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6727,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>193.7341723913397</v>
+        <v>605.8257210593862</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>431.3726917782591</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>431.3726917782591</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6785,19 +6785,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>496.4894350879777</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6809,22 +6809,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>660.701031422288</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V33" t="n">
-        <v>660.701031422288</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W33" t="n">
-        <v>417.2522547781879</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="X33" t="n">
-        <v>417.2522547781879</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="Y33" t="n">
-        <v>209.491956013234</v>
+        <v>605.8257210593862</v>
       </c>
     </row>
     <row r="34">
@@ -6885,10 +6885,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
         <v>19.28114311021272</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>233.7108255783361</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="Y35" t="n">
-        <v>477.1596022224361</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>279.0604900729671</v>
+        <v>499.5061853699102</v>
       </c>
       <c r="C36" t="n">
-        <v>104.6074607918401</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="D36" t="n">
-        <v>104.6074607918401</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E36" t="n">
-        <v>104.6074607918401</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F36" t="n">
         <v>19.28114311021272</v>
@@ -7025,16 +7025,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7052,16 +7052,16 @@
         <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>862.8876260635219</v>
+        <v>707.2664841348642</v>
       </c>
       <c r="W36" t="n">
-        <v>862.8876260635219</v>
+        <v>707.2664841348642</v>
       </c>
       <c r="X36" t="n">
-        <v>655.0361258579891</v>
+        <v>707.2664841348642</v>
       </c>
       <c r="Y36" t="n">
-        <v>447.2758270930352</v>
+        <v>499.5061853699102</v>
       </c>
     </row>
     <row r="37">
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
         <v>19.28114311021272</v>
@@ -7122,25 +7122,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7201,25 +7201,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>428.1192463369997</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7259,13 +7259,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
         <v>712.019119383956</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>125.0774898247174</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W39" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I40" t="n">
         <v>19.28114311021272</v>
@@ -7353,31 +7353,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>601.5428246748836</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C41" t="n">
-        <v>601.5428246748836</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D41" t="n">
-        <v>601.5428246748836</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E41" t="n">
-        <v>358.0940480307835</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F41" t="n">
-        <v>358.0940480307835</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G41" t="n">
-        <v>114.6452713866835</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T41" t="n">
-        <v>601.5428246748836</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U41" t="n">
-        <v>601.5428246748836</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V41" t="n">
-        <v>601.5428246748836</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W41" t="n">
-        <v>601.5428246748836</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X41" t="n">
-        <v>601.5428246748836</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y41" t="n">
-        <v>601.5428246748836</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="42">
@@ -7505,10 +7505,10 @@
         <v>496.4894350879777</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7517,22 +7517,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>259.0600686093459</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V42" t="n">
-        <v>259.0600686093459</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W42" t="n">
-        <v>19.28114311021272</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X42" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y42" t="n">
         <v>19.28114311021272</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>874.2758585542716</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
         <v>262.7299197543128</v>
@@ -7681,19 +7681,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X44" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>554.0190606638694</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C45" t="n">
-        <v>554.0190606638694</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D45" t="n">
-        <v>554.0190606638694</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E45" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7733,46 +7733,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>234.810827406191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>473.4149733950735</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N45" t="n">
-        <v>712.019119383956</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U45" t="n">
-        <v>761.8705608694022</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V45" t="n">
-        <v>761.8705608694022</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="W45" t="n">
-        <v>761.8705608694022</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="X45" t="n">
-        <v>554.0190606638694</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="Y45" t="n">
-        <v>554.0190606638694</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="46">
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
         <v>19.28114311021272</v>
@@ -7848,10 +7848,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
         <v>281.6966398529821</v>
       </c>
       <c r="N2" t="n">
-        <v>282.9255926065406</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>283.6107404316365</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
         <v>284.7455247652193</v>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>191.3539679843088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
         <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
-        <v>196.1087734543942</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
         <v>193.4943030959713</v>
@@ -8300,13 +8300,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O9" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,22 +8774,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9020,10 +9020,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9254,16 +9254,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O21" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,10 +9722,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9734,10 +9734,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,16 +9965,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>369.031319612638</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10433,7 +10433,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10442,13 +10442,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10673,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10907,16 +10907,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11153,13 +11153,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11381,7 +11381,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
@@ -11390,13 +11390,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,16 +23266,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.0374214579384</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23302,31 +23302,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23339,28 +23339,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>143.6381430547625</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23390,22 +23390,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>170.2754303037659</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23457,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="14">
@@ -23503,7 +23503,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23518,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>237.3633207320585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23573,31 +23573,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>126.3942969708654</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -23633,16 +23633,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>230.8560677307913</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23788,10 +23788,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>230.1618975371121</v>
       </c>
       <c r="V17" t="n">
-        <v>227.3726215175137</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23810,19 +23810,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>86.87337592461267</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -23864,22 +23864,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>143.2478283578181</v>
       </c>
     </row>
     <row r="19">
@@ -23937,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23946,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23989,10 +23989,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>201.2414235542941</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24028,13 +24028,13 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24050,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24059,7 +24059,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>71.10541651401829</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24104,19 +24104,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>45.60012324698181</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24180,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.7586218429135</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24220,7 +24220,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>203.017351871693</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24253,16 +24253,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24271,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24287,10 +24287,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,19 +24332,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>115.4082867634163</v>
+        <v>101.6909038562026</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24353,7 +24353,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="26">
@@ -24448,19 +24448,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>277.0585344134748</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24490,7 +24490,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24508,10 +24508,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,19 +24521,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>143.4017885227983</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>6.088961574255023</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,13 +24682,13 @@
         <v>170.4484560200385</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24764,7 +24764,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>83.55624250011644</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24812,19 +24812,19 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>116.8541000790599</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24891,7 +24891,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24919,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24928,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>336.2094860585705</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24967,7 +24967,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>150.932977864192</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25004,22 +25004,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25049,22 +25049,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>177.1327919041849</v>
       </c>
     </row>
     <row r="34">
@@ -25125,13 +25125,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25171,10 +25171,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>130.1411825545859</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25201,28 +25201,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25241,10 +25241,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>60.59615788857278</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25292,13 +25292,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>78.73565664005415</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25362,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25393,13 +25393,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25408,7 +25408,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25441,19 +25441,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>306.5685030994106</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25472,22 +25472,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>115.9448449334999</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25520,19 +25520,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>146.95659991356</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25569,7 +25569,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -25593,7 +25593,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.5597290184211</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,28 +25630,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>356.0384257548957</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>245.0643151220611</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,22 +25675,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25757,10 +25757,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25769,13 +25769,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>14.31384691677781</v>
+        <v>53.9216280989003</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25827,13 +25827,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25921,16 +25921,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>136.9555830739709</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25952,22 +25952,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>113.0459400480449</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26000,19 +26000,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>187.0640560341509</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>307397.2441829651</v>
+        <v>307397.244182965</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>307397.2441829651</v>
+        <v>307397.244182965</v>
       </c>
     </row>
     <row r="15">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.460138034</v>
+      </c>
+      <c r="C2" t="n">
+        <v>677359.4601380338</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380336</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380335</v>
-      </c>
-      <c r="D2" t="n">
-        <v>677359.4601380335</v>
-      </c>
       <c r="E2" t="n">
-        <v>274165.1096766985</v>
+        <v>274165.1096766984</v>
       </c>
       <c r="F2" t="n">
         <v>274165.1096766984</v>
       </c>
       <c r="G2" t="n">
-        <v>274165.1096766985</v>
+        <v>274165.1096766984</v>
       </c>
       <c r="H2" t="n">
         <v>274165.1096766985</v>
@@ -26337,10 +26337,10 @@
         <v>274165.1096766985</v>
       </c>
       <c r="J2" t="n">
-        <v>274165.1096766983</v>
+        <v>274165.1096766985</v>
       </c>
       <c r="K2" t="n">
-        <v>274165.1096766985</v>
+        <v>274165.1096766984</v>
       </c>
       <c r="L2" t="n">
         <v>274165.1096766985</v>
@@ -26349,10 +26349,10 @@
         <v>274165.1096766985</v>
       </c>
       <c r="N2" t="n">
+        <v>274165.1096766985</v>
+      </c>
+      <c r="O2" t="n">
         <v>274165.1096766984</v>
-      </c>
-      <c r="O2" t="n">
-        <v>274165.1096766985</v>
       </c>
       <c r="P2" t="n">
         <v>274165.1096766985</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26438,7 +26438,7 @@
         <v>2630.971532363665</v>
       </c>
       <c r="I4" t="n">
-        <v>2630.971532363664</v>
+        <v>2630.971532363665</v>
       </c>
       <c r="J4" t="n">
         <v>2630.971532363665</v>
@@ -26447,10 +26447,10 @@
         <v>2630.971532363665</v>
       </c>
       <c r="L4" t="n">
-        <v>2630.971532363664</v>
+        <v>2630.971532363665</v>
       </c>
       <c r="M4" t="n">
-        <v>2630.971532363664</v>
+        <v>2630.971532363665</v>
       </c>
       <c r="N4" t="n">
         <v>2630.971532363664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>291098.4353424811</v>
+        <v>291098.4353424815</v>
       </c>
       <c r="C6" t="n">
-        <v>286925.3700207807</v>
+        <v>286925.3700207809</v>
       </c>
       <c r="D6" t="n">
-        <v>347501.6922074487</v>
+        <v>347501.6922074488</v>
       </c>
       <c r="E6" t="n">
-        <v>256880.4693805731</v>
+        <v>244662.4587605326</v>
       </c>
       <c r="F6" t="n">
-        <v>256880.4693805731</v>
+        <v>244662.4587605326</v>
       </c>
       <c r="G6" t="n">
-        <v>256880.4693805731</v>
+        <v>244662.4587605326</v>
       </c>
       <c r="H6" t="n">
-        <v>256880.4693805731</v>
+        <v>244662.4587605327</v>
       </c>
       <c r="I6" t="n">
-        <v>256880.4693805732</v>
+        <v>244662.4587605326</v>
       </c>
       <c r="J6" t="n">
-        <v>242879.2372402937</v>
+        <v>230661.2266202534</v>
       </c>
       <c r="K6" t="n">
-        <v>208623.5164469405</v>
+        <v>196405.5058269</v>
       </c>
       <c r="L6" t="n">
-        <v>256880.4693805732</v>
+        <v>244662.4587605326</v>
       </c>
       <c r="M6" t="n">
-        <v>256880.4693805731</v>
+        <v>244662.4587605326</v>
       </c>
       <c r="N6" t="n">
-        <v>256880.4693805731</v>
+        <v>244662.4587605326</v>
       </c>
       <c r="O6" t="n">
-        <v>256880.4693805731</v>
+        <v>244662.4587605326</v>
       </c>
       <c r="P6" t="n">
-        <v>256880.4693805732</v>
+        <v>244662.4587605326</v>
       </c>
     </row>
   </sheetData>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>354.4253412078408</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>361.7902085051853</v>
+        <v>396.9849362740401</v>
       </c>
       <c r="H2" t="n">
         <v>285.9622731058174</v>
@@ -27423,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>155.5075405762956</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27438,7 +27438,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>274.2397294601852</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27460,22 +27460,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>119.195969978366</v>
+        <v>126.3212547626099</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>93.93253655468899</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>104.1325514454512</v>
       </c>
       <c r="F3" t="n">
-        <v>91.55668338343412</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>90.95627293750474</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>58.72291522654671</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27508,7 +27508,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>118.1706420938881</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>114.478450348509</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27560,10 +27560,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>39.84665110672302</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.64951424174463</v>
+        <v>84.99106624721522</v>
       </c>
       <c r="R4" t="n">
-        <v>123.7808623672197</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>200.5761292066102</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>165.1120586621556</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>381.7025041237114</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27703,19 +27703,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>33.95871600468959</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>126.7835207409944</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>113.0991222774871</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>327.0219007382274</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,19 +27864,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>100.9113611083908</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,22 +27897,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27934,16 +27934,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>21.46887964564732</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -28034,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>210.8728004813312</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -34701,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>51.35040662570935</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="N2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>53.51252900994975</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>51.35040662570935</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>53.51252900994975</v>
@@ -34947,7 +34947,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35020,13 +35020,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>161.1784674257276</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35740,10 +35740,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35974,16 +35974,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>99.8112771299739</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>217.7067518141195</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,10 +36442,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36454,10 +36454,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36685,16 +36685,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>226.4350751681936</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37153,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37162,13 +37162,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,19 +37393,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37873,13 +37873,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
@@ -38110,13 +38110,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Output Files/100000/Output_0_33.xlsx
+++ b/Outputs/1. Budget/Output Files/100000/Output_0_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2192846.056462046</v>
+        <v>2254767.364849192</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742178</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4859178.531877563</v>
+        <v>4859178.531877564</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>18.31780124109495</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>3.015063725959893</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>46.38724422570588</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>53.51252900994975</v>
@@ -755,41 +755,41 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>47.13383555196375</v>
       </c>
     </row>
     <row r="4">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>26.16190956546853</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.170977004479167</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>200.160833108852</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>222.3396163656984</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -980,13 +980,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>34.07808622174224</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>78.98946446248303</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55.71194092525318</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>57.16776090941369</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1183,7 +1183,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>123.6003327477366</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -1265,7 +1265,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>178.6958490491743</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>24.75543250779076</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>82.96396779500064</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1463,16 +1463,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>29.8892983910557</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>163.2851121485604</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>9.234466016111838</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1651,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -1663,19 +1663,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,31 +1685,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1745,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>1.94451941863394</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>149.4878195522442</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="F17" t="n">
         <v>241.0142888776591</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1925,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1940,13 +1940,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>169.795417269108</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>62.43486741948623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -2137,10 +2137,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
+        <v>11.19305615617957</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>112.3289263072337</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2171,19 +2171,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>18.82206244933321</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>29.05241763862484</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,64 +2329,64 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S23" t="n">
-        <v>80.33470701582003</v>
-      </c>
-      <c r="T23" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="24">
@@ -2411,13 +2411,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.223980395674179</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -2453,19 +2453,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>131.1096832932227</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2560,61 +2560,61 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.26531605719669</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>241.0142888776591</v>
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>226.7116255751702</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>165.7447985797152</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>241.0142888776591</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>51.72215467797748</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2921,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>29.1427070647978</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>115.9464870703654</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3116,22 +3116,22 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>62.86349518004438</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3167,16 +3167,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>28.54990387311947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -3365,10 +3365,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>86.22829914456597</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>154.0649305093711</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3429,49 +3429,49 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>21.18375537072436</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3584,28 +3584,28 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>56.76365405481585</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3647,10 +3647,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="40">
@@ -3681,55 +3681,55 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>9.234466016111838</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>52.64621273378174</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3881,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>197.7733550620193</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3906,58 +3906,58 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,25 +4103,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>45.73653111527436</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>87.96831757036702</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4140,64 +4140,64 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95.85238145955221</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="C2" t="n">
-        <v>95.85238145955221</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="D2" t="n">
-        <v>95.85238145955221</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="E2" t="n">
-        <v>95.85238145955221</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="F2" t="n">
-        <v>88.90688071034873</v>
+        <v>31.80830218922787</v>
       </c>
       <c r="G2" t="n">
-        <v>70.40405117388919</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="H2" t="n">
         <v>16.35099156787933</v>
@@ -4336,16 +4336,16 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
+        <v>57.25840604064623</v>
+      </c>
+      <c r="M2" t="n">
         <v>110.2358097604965</v>
       </c>
-      <c r="M2" t="n">
-        <v>161.0727123199487</v>
-      </c>
       <c r="N2" t="n">
-        <v>161.0727123199487</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
@@ -4366,16 +4366,16 @@
         <v>95.85238145955221</v>
       </c>
       <c r="V2" t="n">
-        <v>95.85238145955221</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="W2" t="n">
-        <v>95.85238145955221</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="X2" t="n">
-        <v>95.85238145955221</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="Y2" t="n">
-        <v>95.85238145955221</v>
+        <v>92.8068625444412</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>214.050116039799</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="C3" t="n">
-        <v>167.1943137916113</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="D3" t="n">
-        <v>113.1412541856014</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="E3" t="n">
-        <v>59.08819457959154</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F3" t="n">
-        <v>59.08819457959154</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G3" t="n">
-        <v>59.08819457959154</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
@@ -4415,13 +4415,13 @@
         <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M3" t="n">
         <v>57.25840604064623</v>
       </c>
       <c r="N3" t="n">
-        <v>108.0953086000985</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="O3" t="n">
         <v>108.0953086000985</v>
@@ -4436,25 +4436,25 @@
         <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="Y3" t="n">
-        <v>214.050116039799</v>
+        <v>112.3871215328157</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134.8815577205762</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="C4" t="n">
-        <v>134.8815577205762</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="D4" t="n">
-        <v>134.8815577205762</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E4" t="n">
-        <v>134.8815577205762</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F4" t="n">
-        <v>134.8815577205762</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G4" t="n">
-        <v>80.82849811456629</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
-        <v>80.82849811456629</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I4" t="n">
-        <v>80.82849811456629</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4506,34 +4506,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>134.8815577205762</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>134.8815577205762</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>134.8815577205762</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>134.8815577205762</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="U4" t="n">
-        <v>134.8815577205762</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="V4" t="n">
-        <v>134.8815577205762</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="W4" t="n">
-        <v>134.8815577205762</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="X4" t="n">
-        <v>134.8815577205762</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Y4" t="n">
-        <v>134.8815577205762</v>
+        <v>138.8132928110667</v>
       </c>
     </row>
     <row r="5">
@@ -4546,16 +4546,16 @@
         <v>499.3853800778592</v>
       </c>
       <c r="C5" t="n">
-        <v>297.2027203719481</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="D5" t="n">
-        <v>297.2027203719481</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="E5" t="n">
-        <v>53.75394372784808</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="F5" t="n">
-        <v>46.80844297864461</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="G5" t="n">
         <v>31.35113235729608</v>
@@ -4606,7 +4606,7 @@
         <v>742.8341567219593</v>
       </c>
       <c r="W5" t="n">
-        <v>742.8341567219593</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X5" t="n">
         <v>499.3853800778592</v>
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>179.2727307684539</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="C6" t="n">
-        <v>179.2727307684539</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="D6" t="n">
-        <v>179.2727307684539</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F6" t="n">
         <v>20.03527576299844</v>
@@ -4652,10 +4652,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N6" t="n">
         <v>473.4149733950735</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V6" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W6" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X6" t="n">
-        <v>179.2727307684539</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y6" t="n">
-        <v>179.2727307684539</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
         <v>41.77557929797318</v>
@@ -4752,25 +4752,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>502.8591282797204</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C8" t="n">
-        <v>502.8591282797204</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D8" t="n">
-        <v>502.8591282797204</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E8" t="n">
-        <v>502.8591282797204</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F8" t="n">
-        <v>259.4103516356203</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4831,25 +4831,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X8" t="n">
-        <v>802.5825927271064</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y8" t="n">
-        <v>559.1338160830064</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>508.9694238887622</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C9" t="n">
-        <v>508.9694238887622</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D9" t="n">
-        <v>508.9694238887622</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="F9" t="n">
         <v>362.4348659156472</v>
@@ -4889,19 +4889,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4913,22 +4913,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>508.9694238887622</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>508.9694238887622</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V9" t="n">
-        <v>508.9694238887622</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W9" t="n">
-        <v>508.9694238887622</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X9" t="n">
-        <v>508.9694238887622</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y9" t="n">
-        <v>508.9694238887622</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>136.0777814360265</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="C10" t="n">
-        <v>136.0777814360265</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="D10" t="n">
-        <v>136.0777814360265</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="E10" t="n">
-        <v>136.0777814360265</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="F10" t="n">
-        <v>136.0777814360265</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="G10" t="n">
-        <v>136.0777814360265</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="H10" t="n">
-        <v>136.0777814360265</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="X10" t="n">
-        <v>136.0777814360265</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="Y10" t="n">
-        <v>136.0777814360265</v>
+        <v>877.0247885897328</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5065,28 +5065,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T11" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U11" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V11" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W11" t="n">
-        <v>710.516763498309</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X11" t="n">
-        <v>467.067986854209</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y11" t="n">
-        <v>223.6192102101089</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>423.5187596043535</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5129,16 +5129,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M12" t="n">
-        <v>257.8852890990952</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N12" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5147,25 +5147,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T12" t="n">
-        <v>933.8659450146204</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U12" t="n">
-        <v>705.6423267510095</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V12" t="n">
-        <v>470.4902185192667</v>
+        <v>423.5187596043535</v>
       </c>
       <c r="W12" t="n">
-        <v>227.0414418751666</v>
+        <v>423.5187596043535</v>
       </c>
       <c r="X12" t="n">
-        <v>227.0414418751666</v>
+        <v>423.5187596043535</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>423.5187596043535</v>
       </c>
     </row>
     <row r="13">
@@ -5241,7 +5241,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
         <v>19.28114311021272</v>
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>262.7299197543128</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C14" t="n">
-        <v>262.7299197543128</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="D14" t="n">
-        <v>262.7299197543128</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>731.528039392485</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T14" t="n">
-        <v>506.1786963984129</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U14" t="n">
-        <v>262.7299197543128</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V14" t="n">
-        <v>262.7299197543128</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W14" t="n">
-        <v>262.7299197543128</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X14" t="n">
-        <v>262.7299197543128</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y14" t="n">
-        <v>262.7299197543128</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>342.668582052591</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="C15" t="n">
-        <v>168.215552771464</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5372,10 +5372,10 @@
         <v>621.8469951458151</v>
       </c>
       <c r="O15" t="n">
-        <v>860.4511411346975</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5393,16 +5393,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>962.092994481713</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W15" t="n">
-        <v>718.6442178376129</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="X15" t="n">
-        <v>718.6442178376129</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="Y15" t="n">
-        <v>510.883919072659</v>
+        <v>577.9072497513741</v>
       </c>
     </row>
     <row r="16">
@@ -5421,13 +5421,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
         <v>19.28114311021272</v>
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="C17" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="D17" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="E17" t="n">
         <v>506.1786963984129</v>
@@ -5542,25 +5542,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>527.5764290961142</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U17" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V17" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W17" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X17" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y17" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>557.3945247848451</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5621,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>792.5466330165877</v>
       </c>
       <c r="T18" t="n">
-        <v>761.8705608694022</v>
+        <v>792.5466330165877</v>
       </c>
       <c r="U18" t="n">
-        <v>533.6469426057913</v>
+        <v>792.5466330165877</v>
       </c>
       <c r="V18" t="n">
-        <v>533.6469426057913</v>
+        <v>557.3945247848451</v>
       </c>
       <c r="W18" t="n">
-        <v>290.1981659616912</v>
+        <v>557.3945247848451</v>
       </c>
       <c r="X18" t="n">
-        <v>82.34666575615842</v>
+        <v>557.3945247848451</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>557.3945247848451</v>
       </c>
     </row>
     <row r="19">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>601.5428246748836</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>376.1934816808115</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U20" t="n">
-        <v>132.7447050367114</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.03527576299844</v>
+        <v>380.6929175551172</v>
       </c>
       <c r="C21" t="n">
-        <v>20.03527576299844</v>
+        <v>380.6929175551172</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>380.6929175551172</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>380.6929175551172</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>934.7112791079849</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>934.7112791079849</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>934.7112791079849</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>706.487660844374</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V21" t="n">
-        <v>471.3355526126313</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W21" t="n">
-        <v>227.8867759685313</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X21" t="n">
-        <v>20.03527576299844</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y21" t="n">
-        <v>20.03527576299844</v>
+        <v>380.6929175551172</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J22" t="n">
         <v>19.28114311021272</v>
@@ -5940,22 +5940,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20.03527576299844</v>
+        <v>279.432186667424</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>279.432186667424</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>279.432186667424</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>279.432186667424</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>279.432186667424</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>140.7013612500395</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>27.33222565761882</v>
       </c>
       <c r="I24" t="n">
         <v>20.03527576299844</v>
@@ -6074,7 +6074,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M24" t="n">
         <v>304.2053859195205</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>360.2295980564601</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V24" t="n">
-        <v>227.7955745279523</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W24" t="n">
-        <v>227.7955745279523</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X24" t="n">
-        <v>227.7955745279523</v>
+        <v>279.432186667424</v>
       </c>
       <c r="Y24" t="n">
-        <v>20.03527576299844</v>
+        <v>279.432186667424</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720.6083788665362</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="C26" t="n">
-        <v>720.6083788665362</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6253,25 +6253,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>22.57944215788615</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.03527576299844</v>
+        <v>353.7257600495809</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E27" t="n">
         <v>20.03527576299844</v>
@@ -6308,16 +6308,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
         <v>964.0571555106362</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>431.6993894271665</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W27" t="n">
-        <v>188.2506127830665</v>
+        <v>561.4860588145348</v>
       </c>
       <c r="X27" t="n">
-        <v>188.2506127830665</v>
+        <v>561.4860588145348</v>
       </c>
       <c r="Y27" t="n">
-        <v>188.2506127830665</v>
+        <v>353.7257600495809</v>
       </c>
     </row>
     <row r="28">
@@ -6363,13 +6363,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
         <v>19.28114311021272</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6490,25 +6490,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U29" t="n">
-        <v>720.6083788665362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V29" t="n">
-        <v>720.6083788665362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="30">
@@ -6551,16 +6551,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6569,22 +6569,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>934.6200776674061</v>
       </c>
       <c r="U30" t="n">
-        <v>588.4532163200711</v>
+        <v>706.3964594037951</v>
       </c>
       <c r="V30" t="n">
-        <v>471.3355526126313</v>
+        <v>471.2443511720524</v>
       </c>
       <c r="W30" t="n">
-        <v>227.8867759685313</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="X30" t="n">
-        <v>20.03527576299844</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y30" t="n">
         <v>20.03527576299844</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H31" t="n">
         <v>19.28114311021272</v>
@@ -6651,22 +6651,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6730,22 +6730,22 @@
         <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>605.8257210593862</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C33" t="n">
-        <v>431.3726917782591</v>
+        <v>82.77962309005554</v>
       </c>
       <c r="D33" t="n">
-        <v>431.3726917782591</v>
+        <v>82.77962309005554</v>
       </c>
       <c r="E33" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6785,13 +6785,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
         <v>964.0571555106362</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>634.6640077999109</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>634.6640077999109</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>634.6640077999109</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>634.6640077999109</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y33" t="n">
-        <v>605.8257210593862</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="34">
@@ -6882,7 +6882,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
         <v>19.28114311021272</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>343.8760884571613</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C35" t="n">
-        <v>343.8760884571613</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D35" t="n">
-        <v>343.8760884571613</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E35" t="n">
-        <v>343.8760884571613</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F35" t="n">
-        <v>343.8760884571613</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G35" t="n">
-        <v>343.8760884571613</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H35" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>343.8760884571613</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>499.5061853699102</v>
+        <v>431.322492160084</v>
       </c>
       <c r="C36" t="n">
-        <v>325.0531560887832</v>
+        <v>256.869462878957</v>
       </c>
       <c r="D36" t="n">
-        <v>325.0531560887832</v>
+        <v>256.869462878957</v>
       </c>
       <c r="E36" t="n">
-        <v>165.8157010833278</v>
+        <v>256.869462878957</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>876.9578634454181</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>876.9578634454181</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>674.771268804184</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>674.771268804184</v>
       </c>
       <c r="V36" t="n">
-        <v>707.2664841348642</v>
+        <v>674.771268804184</v>
       </c>
       <c r="W36" t="n">
-        <v>707.2664841348642</v>
+        <v>431.322492160084</v>
       </c>
       <c r="X36" t="n">
-        <v>707.2664841348642</v>
+        <v>431.322492160084</v>
       </c>
       <c r="Y36" t="n">
-        <v>499.5061853699102</v>
+        <v>431.322492160084</v>
       </c>
     </row>
     <row r="37">
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
         <v>19.28114311021272</v>
@@ -7119,28 +7119,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C38" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C38" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
         <v>19.28114311021272</v>
@@ -7207,19 +7207,19 @@
         <v>527.5764290961142</v>
       </c>
       <c r="U38" t="n">
-        <v>284.1276524520142</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W38" t="n">
-        <v>262.7299197543128</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>485.4562706347935</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>428.1192463369997</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>279.1848366757484</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>279.1848366757484</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N39" t="n">
-        <v>712.019119383956</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7286,19 +7286,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>485.4562706347935</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>485.4562706347935</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>485.4562706347935</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
         <v>19.28114311021272</v>
@@ -7377,7 +7377,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>40.6788758079141</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C41" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D41" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E41" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F41" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K41" t="n">
         <v>122.2961490211351</v>
@@ -7438,25 +7438,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>40.6788758079141</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>40.6788758079141</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y41" t="n">
-        <v>40.6788758079141</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>341.0228630172405</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>496.4894350879777</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>910.8791628502506</v>
       </c>
       <c r="S42" t="n">
-        <v>862.8876260635219</v>
+        <v>737.4618183009195</v>
       </c>
       <c r="T42" t="n">
-        <v>862.8876260635219</v>
+        <v>737.4618183009195</v>
       </c>
       <c r="U42" t="n">
-        <v>634.6640077999109</v>
+        <v>509.2382000373086</v>
       </c>
       <c r="V42" t="n">
-        <v>634.6640077999109</v>
+        <v>509.2382000373086</v>
       </c>
       <c r="W42" t="n">
-        <v>434.8929420806995</v>
+        <v>509.2382000373086</v>
       </c>
       <c r="X42" t="n">
-        <v>227.0414418751666</v>
+        <v>509.2382000373086</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>509.2382000373086</v>
       </c>
     </row>
     <row r="43">
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
         <v>19.28114311021272</v>
@@ -7605,16 +7605,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E44" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7684,16 +7684,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X44" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>178.5185981156682</v>
+        <v>325.807288741569</v>
       </c>
       <c r="C45" t="n">
-        <v>178.5185981156682</v>
+        <v>325.807288741569</v>
       </c>
       <c r="D45" t="n">
-        <v>178.5185981156682</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7745,34 +7745,34 @@
         <v>735.0935810768601</v>
       </c>
       <c r="P45" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>660.701031422288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U45" t="n">
-        <v>432.4774131586771</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V45" t="n">
-        <v>386.2788968806221</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W45" t="n">
-        <v>386.2788968806221</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X45" t="n">
-        <v>386.2788968806221</v>
+        <v>701.7829245265909</v>
       </c>
       <c r="Y45" t="n">
-        <v>178.5185981156682</v>
+        <v>494.022625761637</v>
       </c>
     </row>
     <row r="46">
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
         <v>19.28114311021272</v>
@@ -7845,13 +7845,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7984,19 +7984,19 @@
         <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>289.278943979937</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>281.6966398529821</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>282.5834023809789</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,16 +8063,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>195.6465629319681</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>182.6921187090427</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>193.9466510701538</v>
       </c>
       <c r="P3" t="n">
         <v>187.48693642428</v>
@@ -8300,13 +8300,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8537,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8777,7 +8777,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9020,13 +9020,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P15" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N21" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,10 +9722,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M24" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9968,7 +9968,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10199,10 +10199,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10433,7 +10433,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10442,7 +10442,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10667,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10904,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
@@ -11153,13 +11153,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11393,10 +11393,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q45" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>282.3089239760069</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23269,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23351,16 +23351,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>170.2754303037659</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>69.51547500086485</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23481,10 +23481,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y13" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23503,13 +23503,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>406.0682714990232</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23518,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,10 +23539,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>138.6760617849701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23573,31 +23573,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23633,16 +23633,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>230.8560677307913</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>102.2071636086754</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,7 +23670,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I16" t="n">
         <v>155.4504749272583</v>
@@ -23740,7 +23740,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>151.7265451152921</v>
       </c>
       <c r="F17" t="n">
         <v>165.8617568640524</v>
@@ -23782,13 +23782,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>230.1618975371121</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23813,13 +23813,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23828,13 +23828,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23861,25 +23861,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>1.887753834729835</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>143.2478283578181</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23986,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24025,10 +24025,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>240.1525967516569</v>
       </c>
       <c r="V20" t="n">
-        <v>215.4233321629012</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24059,19 +24059,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>126.2471499440507</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>71.10541651401829</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9909793584588</v>
+        <v>128.1631918897635</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24150,7 +24150,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J22" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>22.26949182588285</v>
@@ -24180,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24208,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24217,10 +24217,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24253,28 +24253,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>128.6853625704253</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="24">
@@ -24299,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>82.1726524557409</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24341,19 +24341,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>101.6909038562026</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.3976857667268</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="26">
@@ -24448,22 +24448,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24493,16 +24493,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>108.226679839754</v>
@@ -24521,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>6.088961574255023</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>85.95018458120441</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,7 +24688,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24700,7 +24700,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24730,10 +24730,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>10.33136403017744</v>
@@ -24742,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>297.5188140394355</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24809,25 +24809,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>171.0220216300238</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>116.8541000790599</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24855,7 +24855,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I31" t="n">
         <v>155.4504749272583</v>
@@ -24891,7 +24891,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24934,7 +24934,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>336.2094860585705</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24970,10 +24970,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>219.8305335069347</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25004,22 +25004,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>94.78158527535656</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25055,16 +25055,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>177.1327919041849</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25122,10 +25122,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25165,16 +25165,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>130.1411825545859</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25201,13 +25201,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25216,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25241,7 +25241,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25253,10 +25253,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>13.92953500807717</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>78.73565664005415</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25359,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25396,7 +25396,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25447,16 +25447,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>306.5685030994106</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>348.5473453077446</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25472,28 +25472,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>115.9448449334999</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25526,7 +25526,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25535,10 +25535,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="40">
@@ -25569,7 +25569,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>356.0384257548957</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25639,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25718,7 +25718,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>47.5116214188614</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25769,13 +25769,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>53.9216280989003</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25845,7 +25845,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,13 +25873,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25924,16 +25924,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>136.9555830739709</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25955,7 +25955,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>187.0640560341509</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>117.8046676331105</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>307397.244182965</v>
+        <v>307397.2441829651</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>307397.244182965</v>
+        <v>307397.2441829651</v>
       </c>
     </row>
     <row r="15">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="E2" t="n">
-        <v>274165.1096766984</v>
+        <v>274165.1096766985</v>
       </c>
       <c r="F2" t="n">
-        <v>274165.1096766984</v>
+        <v>274165.1096766985</v>
       </c>
       <c r="G2" t="n">
-        <v>274165.1096766984</v>
+        <v>274165.1096766985</v>
       </c>
       <c r="H2" t="n">
         <v>274165.1096766985</v>
@@ -26337,13 +26337,13 @@
         <v>274165.1096766985</v>
       </c>
       <c r="J2" t="n">
+        <v>274165.1096766984</v>
+      </c>
+      <c r="K2" t="n">
         <v>274165.1096766985</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>274165.1096766984</v>
-      </c>
-      <c r="L2" t="n">
-        <v>274165.1096766985</v>
       </c>
       <c r="M2" t="n">
         <v>274165.1096766985</v>
@@ -26429,7 +26429,7 @@
         <v>2630.971532363665</v>
       </c>
       <c r="F4" t="n">
-        <v>2630.971532363665</v>
+        <v>2630.971532363664</v>
       </c>
       <c r="G4" t="n">
         <v>2630.971532363665</v>
@@ -26453,7 +26453,7 @@
         <v>2630.971532363665</v>
       </c>
       <c r="N4" t="n">
-        <v>2630.971532363664</v>
+        <v>2630.971532363665</v>
       </c>
       <c r="O4" t="n">
         <v>2630.971532363665</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>291098.4353424815</v>
+        <v>291098.4353424814</v>
       </c>
       <c r="C6" t="n">
-        <v>286925.3700207809</v>
+        <v>286925.3700207807</v>
       </c>
       <c r="D6" t="n">
-        <v>347501.6922074488</v>
+        <v>347501.6922074489</v>
       </c>
       <c r="E6" t="n">
-        <v>244662.4587605326</v>
+        <v>255658.668318569</v>
       </c>
       <c r="F6" t="n">
-        <v>244662.4587605326</v>
+        <v>255658.668318569</v>
       </c>
       <c r="G6" t="n">
-        <v>244662.4587605326</v>
+        <v>255658.668318569</v>
       </c>
       <c r="H6" t="n">
-        <v>244662.4587605327</v>
+        <v>255658.668318569</v>
       </c>
       <c r="I6" t="n">
-        <v>244662.4587605326</v>
+        <v>255658.668318569</v>
       </c>
       <c r="J6" t="n">
-        <v>230661.2266202534</v>
+        <v>241657.4361782897</v>
       </c>
       <c r="K6" t="n">
-        <v>196405.5058269</v>
+        <v>207401.7153849365</v>
       </c>
       <c r="L6" t="n">
-        <v>244662.4587605326</v>
+        <v>255658.668318569</v>
       </c>
       <c r="M6" t="n">
-        <v>244662.4587605326</v>
+        <v>255658.668318569</v>
       </c>
       <c r="N6" t="n">
-        <v>244662.4587605326</v>
+        <v>255658.668318569</v>
       </c>
       <c r="O6" t="n">
-        <v>244662.4587605326</v>
+        <v>255658.668318569</v>
       </c>
       <c r="P6" t="n">
-        <v>244662.4587605326</v>
+        <v>255658.668318569</v>
       </c>
     </row>
   </sheetData>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>311.7603627610578</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>396.9849362740401</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>285.9622731058174</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27438,7 +27438,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>324.737194744175</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27460,10 +27460,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>126.3212547626099</v>
+        <v>119.195969978366</v>
       </c>
       <c r="D3" t="n">
-        <v>93.93253655468899</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>104.1325514454512</v>
@@ -27475,13 +27475,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>58.72291522654671</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>118.1706420938881</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>158.5488602253406</v>
       </c>
     </row>
     <row r="4">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>126.3194511719875</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>113.7342920886781</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>122.4535634527438</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>114.478450348509</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27560,10 +27560,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>39.84665110672302</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>84.99106624721522</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27618,19 +27618,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>165.1120586621556</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>192.9631211494366</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27700,13 +27700,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>113.3669793428965</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>126.7835207409944</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27794,7 +27794,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>44.5329991677731</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -27824,7 +27824,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>113.0991222774871</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>327.0219007382274</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>349.7082848322977</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27943,7 +27943,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>21.46887964564732</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27985,7 +27985,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>21.46887964564732</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -28034,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>68.60374760888202</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28052,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>210.8728004813312</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -34704,19 +34704,19 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="M2" t="n">
-        <v>51.35040662570936</v>
-      </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,16 +34783,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>51.35040662570935</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>53.51252900994975</v>
@@ -34947,7 +34947,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35020,13 +35020,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N6" t="n">
         <v>217.7067518141195</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35187,7 +35187,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35257,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35497,7 +35497,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35740,13 +35740,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P15" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
       <c r="O18" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,10 +36442,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M24" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36676,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36688,7 +36688,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36919,10 +36919,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36931,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37162,7 +37162,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37861,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
@@ -37873,13 +37873,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38113,10 +38113,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
